--- a/BackTest/2019-10-09 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-09 BackTest ZRX.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>100</v>
+      </c>
       <c r="L12" t="n">
         <v>294.3</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>8</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>295.1</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>9</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>77.77777777777779</v>
+      </c>
       <c r="L14" t="n">
         <v>295.8</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>10</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>60</v>
+      </c>
       <c r="L15" t="n">
         <v>296.4</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>11</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>63.63636363636363</v>
+      </c>
       <c r="L16" t="n">
         <v>297.1</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>12</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>50</v>
+      </c>
       <c r="L17" t="n">
         <v>297.7</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>45.45454545454545</v>
+      </c>
       <c r="L18" t="n">
         <v>298.3</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>13</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>27.27272727272727</v>
+      </c>
       <c r="L19" t="n">
         <v>298.7</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>14</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L20" t="n">
         <v>298.9</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>15</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-25</v>
+      </c>
       <c r="L21" t="n">
         <v>299.1</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>17</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-55.55555555555556</v>
+      </c>
       <c r="L22" t="n">
         <v>298.7</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>20</v>
       </c>
       <c r="K23" t="n">
-        <v>30</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L23" t="n">
         <v>298.5</v>
@@ -1466,7 +1488,7 @@
         <v>21</v>
       </c>
       <c r="K24" t="n">
-        <v>23.80952380952381</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L24" t="n">
         <v>298.3</v>
@@ -1515,7 +1537,7 @@
         <v>22</v>
       </c>
       <c r="K25" t="n">
-        <v>18.18181818181818</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L25" t="n">
         <v>298.1</v>
@@ -1564,7 +1586,7 @@
         <v>23</v>
       </c>
       <c r="K26" t="n">
-        <v>13.04347826086956</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L26" t="n">
         <v>297.7</v>
@@ -1613,7 +1635,7 @@
         <v>23</v>
       </c>
       <c r="K27" t="n">
-        <v>13.04347826086956</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L27" t="n">
         <v>297.4</v>
@@ -1662,7 +1684,7 @@
         <v>24</v>
       </c>
       <c r="K28" t="n">
-        <v>8.333333333333332</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L28" t="n">
         <v>297</v>
@@ -1711,7 +1733,7 @@
         <v>24</v>
       </c>
       <c r="K29" t="n">
-        <v>4.347826086956522</v>
+        <v>-20</v>
       </c>
       <c r="L29" t="n">
         <v>296.7</v>
@@ -1760,7 +1782,7 @@
         <v>25</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.347826086956522</v>
+        <v>-40</v>
       </c>
       <c r="L30" t="n">
         <v>296.4</v>
@@ -1809,7 +1831,7 @@
         <v>26</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.347826086956522</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L31" t="n">
         <v>296.1</v>
@@ -1860,7 +1882,7 @@
         <v>29</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L32" t="n">
         <v>296.3</v>
@@ -1911,7 +1933,7 @@
         <v>29</v>
       </c>
       <c r="K33" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>296.2</v>
@@ -1962,7 +1984,7 @@
         <v>32</v>
       </c>
       <c r="K34" t="n">
-        <v>4.347826086956522</v>
+        <v>40</v>
       </c>
       <c r="L34" t="n">
         <v>296.5</v>
@@ -2013,7 +2035,7 @@
         <v>32</v>
       </c>
       <c r="K35" t="n">
-        <v>9.090909090909092</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L35" t="n">
         <v>296.9</v>
@@ -2064,7 +2086,7 @@
         <v>32</v>
       </c>
       <c r="K36" t="n">
-        <v>4.761904761904762</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L36" t="n">
         <v>297.4</v>
@@ -2115,7 +2137,7 @@
         <v>33</v>
       </c>
       <c r="K37" t="n">
-        <v>14.28571428571428</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L37" t="n">
         <v>298</v>
@@ -2166,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>9.090909090909092</v>
+        <v>60</v>
       </c>
       <c r="L38" t="n">
         <v>298.6</v>
@@ -2217,7 +2239,7 @@
         <v>34</v>
       </c>
       <c r="K39" t="n">
-        <v>14.28571428571428</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L39" t="n">
         <v>299.2</v>
@@ -2268,7 +2290,7 @@
         <v>35</v>
       </c>
       <c r="K40" t="n">
-        <v>14.28571428571428</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L40" t="n">
         <v>299.8</v>
@@ -2319,7 +2341,7 @@
         <v>35</v>
       </c>
       <c r="K41" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>300.3</v>
@@ -2370,7 +2392,7 @@
         <v>35</v>
       </c>
       <c r="K42" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L42" t="n">
         <v>300.5</v>
@@ -2421,7 +2443,7 @@
         <v>37</v>
       </c>
       <c r="K43" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L43" t="n">
         <v>300.9</v>
@@ -2472,7 +2494,7 @@
         <v>37</v>
       </c>
       <c r="K44" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L44" t="n">
         <v>301</v>
@@ -2523,7 +2545,7 @@
         <v>39</v>
       </c>
       <c r="K45" t="n">
-        <v>17.64705882352941</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L45" t="n">
         <v>300.9</v>
@@ -2574,7 +2596,7 @@
         <v>41</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>301</v>
@@ -2625,7 +2647,7 @@
         <v>42</v>
       </c>
       <c r="K47" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L47" t="n">
         <v>300.9</v>
@@ -2676,7 +2698,7 @@
         <v>43</v>
       </c>
       <c r="K48" t="n">
-        <v>26.31578947368421</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L48" t="n">
         <v>300.8</v>
@@ -2727,7 +2749,7 @@
         <v>43</v>
       </c>
       <c r="K49" t="n">
-        <v>26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L49" t="n">
         <v>300.7</v>
@@ -2778,7 +2800,7 @@
         <v>43</v>
       </c>
       <c r="K50" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>300.7</v>
@@ -2829,7 +2851,7 @@
         <v>45</v>
       </c>
       <c r="K51" t="n">
-        <v>15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L51" t="n">
         <v>300.5</v>
@@ -2880,7 +2902,7 @@
         <v>48</v>
       </c>
       <c r="K52" t="n">
-        <v>15.78947368421053</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L52" t="n">
         <v>300.6</v>
@@ -2931,7 +2953,7 @@
         <v>49</v>
       </c>
       <c r="K53" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>300.6</v>
@@ -2982,7 +3004,7 @@
         <v>51</v>
       </c>
       <c r="K54" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>300.4</v>
@@ -3033,7 +3055,7 @@
         <v>54</v>
       </c>
       <c r="K55" t="n">
-        <v>9.090909090909092</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L55" t="n">
         <v>300.7</v>
@@ -3084,7 +3106,7 @@
         <v>57</v>
       </c>
       <c r="K56" t="n">
-        <v>-4</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L56" t="n">
         <v>300.5</v>
@@ -3135,7 +3157,7 @@
         <v>57</v>
       </c>
       <c r="K57" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L57" t="n">
         <v>300.4</v>
@@ -3186,7 +3208,7 @@
         <v>59</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>12.5</v>
       </c>
       <c r="L58" t="n">
         <v>300.6</v>
@@ -3237,7 +3259,7 @@
         <v>61</v>
       </c>
       <c r="K59" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L59" t="n">
         <v>300.6</v>
@@ -3288,7 +3310,7 @@
         <v>63</v>
       </c>
       <c r="K60" t="n">
-        <v>7.142857142857142</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L60" t="n">
         <v>300.8</v>
@@ -3339,7 +3361,7 @@
         <v>63</v>
       </c>
       <c r="K61" t="n">
-        <v>7.142857142857142</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L61" t="n">
         <v>301.2</v>
@@ -3390,7 +3412,7 @@
         <v>64</v>
       </c>
       <c r="K62" t="n">
-        <v>3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L62" t="n">
         <v>301.2</v>
@@ -3441,7 +3463,7 @@
         <v>65</v>
       </c>
       <c r="K63" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>301.2</v>
@@ -3492,7 +3514,7 @@
         <v>65</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L64" t="n">
         <v>301.4</v>
@@ -3543,7 +3565,7 @@
         <v>67</v>
       </c>
       <c r="K65" t="n">
-        <v>14.28571428571428</v>
+        <v>40</v>
       </c>
       <c r="L65" t="n">
         <v>301.5</v>
@@ -3594,7 +3616,7 @@
         <v>68</v>
       </c>
       <c r="K66" t="n">
-        <v>11.11111111111111</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L66" t="n">
         <v>302</v>
@@ -3645,7 +3667,7 @@
         <v>70</v>
       </c>
       <c r="K67" t="n">
-        <v>21.42857142857143</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L67" t="n">
         <v>302.7</v>
@@ -3696,7 +3718,7 @@
         <v>72</v>
       </c>
       <c r="K68" t="n">
-        <v>17.24137931034483</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L68" t="n">
         <v>303</v>
@@ -3747,7 +3769,7 @@
         <v>74</v>
       </c>
       <c r="K69" t="n">
-        <v>22.58064516129032</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L69" t="n">
         <v>303.7</v>
@@ -3798,7 +3820,7 @@
         <v>74</v>
       </c>
       <c r="K70" t="n">
-        <v>22.58064516129032</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L70" t="n">
         <v>304.2</v>
@@ -3849,7 +3871,7 @@
         <v>74</v>
       </c>
       <c r="K71" t="n">
-        <v>31.03448275862069</v>
+        <v>60</v>
       </c>
       <c r="L71" t="n">
         <v>304.7</v>
@@ -3900,7 +3922,7 @@
         <v>75</v>
       </c>
       <c r="K72" t="n">
-        <v>18.51851851851852</v>
+        <v>40</v>
       </c>
       <c r="L72" t="n">
         <v>305.2</v>
@@ -3951,7 +3973,7 @@
         <v>75</v>
       </c>
       <c r="K73" t="n">
-        <v>15.38461538461539</v>
+        <v>40</v>
       </c>
       <c r="L73" t="n">
         <v>305.6</v>
@@ -4002,7 +4024,7 @@
         <v>77</v>
       </c>
       <c r="K74" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>305.8</v>
@@ -4053,7 +4075,7 @@
         <v>78</v>
       </c>
       <c r="K75" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
         <v>305.9</v>
@@ -4104,7 +4126,7 @@
         <v>79</v>
       </c>
       <c r="K76" t="n">
-        <v>27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L76" t="n">
         <v>306</v>
@@ -4155,7 +4177,7 @@
         <v>80</v>
       </c>
       <c r="K77" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L77" t="n">
         <v>305.8</v>
@@ -4206,7 +4228,7 @@
         <v>82</v>
       </c>
       <c r="K78" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>306</v>
@@ -4257,7 +4279,7 @@
         <v>84</v>
       </c>
       <c r="K79" t="n">
-        <v>21.73913043478261</v>
+        <v>-20</v>
       </c>
       <c r="L79" t="n">
         <v>305.8</v>
@@ -4308,7 +4330,7 @@
         <v>86</v>
       </c>
       <c r="K80" t="n">
-        <v>21.73913043478261</v>
+        <v>0</v>
       </c>
       <c r="L80" t="n">
         <v>305.8</v>
@@ -4359,7 +4381,7 @@
         <v>86</v>
       </c>
       <c r="K81" t="n">
-        <v>21.73913043478261</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L81" t="n">
         <v>305.8</v>
@@ -4410,7 +4432,7 @@
         <v>86</v>
       </c>
       <c r="K82" t="n">
-        <v>27.27272727272727</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L82" t="n">
         <v>305.9</v>
@@ -4461,7 +4483,7 @@
         <v>87</v>
       </c>
       <c r="K83" t="n">
-        <v>27.27272727272727</v>
+        <v>40</v>
       </c>
       <c r="L83" t="n">
         <v>306.1</v>
@@ -4512,7 +4534,7 @@
         <v>87</v>
       </c>
       <c r="K84" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L84" t="n">
         <v>306.5</v>
@@ -4563,7 +4585,7 @@
         <v>89</v>
       </c>
       <c r="K85" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>306.6</v>
@@ -4614,7 +4636,7 @@
         <v>91</v>
       </c>
       <c r="K86" t="n">
-        <v>13.04347826086956</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L86" t="n">
         <v>306.8</v>
@@ -4665,7 +4687,7 @@
         <v>91</v>
       </c>
       <c r="K87" t="n">
-        <v>4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L87" t="n">
         <v>307.1</v>
@@ -4716,7 +4738,7 @@
         <v>92</v>
       </c>
       <c r="K88" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="L88" t="n">
         <v>307.3</v>
@@ -4767,7 +4789,7 @@
         <v>92</v>
       </c>
       <c r="K89" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L89" t="n">
         <v>307.7</v>
@@ -4818,7 +4840,7 @@
         <v>92</v>
       </c>
       <c r="K90" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L90" t="n">
         <v>307.9</v>
@@ -4920,7 +4942,7 @@
         <v>96</v>
       </c>
       <c r="K92" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L92" t="n">
         <v>308.1</v>
@@ -4971,7 +4993,7 @@
         <v>96</v>
       </c>
       <c r="K93" t="n">
-        <v>14.28571428571428</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L93" t="n">
         <v>308.2</v>
@@ -5022,7 +5044,7 @@
         <v>96</v>
       </c>
       <c r="K94" t="n">
-        <v>26.31578947368421</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L94" t="n">
         <v>308.3</v>
@@ -5073,7 +5095,7 @@
         <v>96</v>
       </c>
       <c r="K95" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L95" t="n">
         <v>308.6</v>
@@ -5124,7 +5146,7 @@
         <v>96</v>
       </c>
       <c r="K96" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L96" t="n">
         <v>308.7</v>
@@ -5175,7 +5197,7 @@
         <v>97</v>
       </c>
       <c r="K97" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>308.9</v>
@@ -5226,7 +5248,7 @@
         <v>98</v>
       </c>
       <c r="K98" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>308.9</v>
@@ -5277,7 +5299,7 @@
         <v>99</v>
       </c>
       <c r="K99" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L99" t="n">
         <v>309</v>
@@ -5328,7 +5350,7 @@
         <v>99</v>
       </c>
       <c r="K100" t="n">
-        <v>23.07692307692308</v>
+        <v>60</v>
       </c>
       <c r="L100" t="n">
         <v>309.1</v>
@@ -5379,7 +5401,7 @@
         <v>99</v>
       </c>
       <c r="K101" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L101" t="n">
         <v>309.4</v>
@@ -5430,7 +5452,7 @@
         <v>100</v>
       </c>
       <c r="K102" t="n">
-        <v>28.57142857142857</v>
+        <v>50</v>
       </c>
       <c r="L102" t="n">
         <v>309.6</v>
@@ -5481,7 +5503,7 @@
         <v>101</v>
       </c>
       <c r="K103" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L103" t="n">
         <v>309.7</v>
@@ -5532,7 +5554,7 @@
         <v>101</v>
       </c>
       <c r="K104" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L104" t="n">
         <v>309.8</v>
@@ -5583,7 +5605,7 @@
         <v>101</v>
       </c>
       <c r="K105" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L105" t="n">
         <v>309.9</v>
@@ -5634,7 +5656,7 @@
         <v>101</v>
       </c>
       <c r="K106" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L106" t="n">
         <v>310</v>
@@ -5685,7 +5707,7 @@
         <v>101</v>
       </c>
       <c r="K107" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>310</v>
@@ -5736,7 +5758,7 @@
         <v>101</v>
       </c>
       <c r="K108" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>310.1</v>
@@ -5787,7 +5809,7 @@
         <v>101</v>
       </c>
       <c r="K109" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L109" t="n">
         <v>310.1</v>
@@ -5838,7 +5860,7 @@
         <v>102</v>
       </c>
       <c r="K110" t="n">
-        <v>20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L110" t="n">
         <v>310.2</v>
@@ -5889,7 +5911,7 @@
         <v>103</v>
       </c>
       <c r="K111" t="n">
-        <v>33.33333333333333</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L111" t="n">
         <v>310.2</v>
@@ -5940,7 +5962,7 @@
         <v>104</v>
       </c>
       <c r="K112" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L112" t="n">
         <v>310.2</v>
@@ -5991,7 +6013,7 @@
         <v>105</v>
       </c>
       <c r="K113" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L113" t="n">
         <v>310.2</v>
@@ -6042,7 +6064,7 @@
         <v>107</v>
       </c>
       <c r="K114" t="n">
-        <v>-9.090909090909092</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L114" t="n">
         <v>310</v>
@@ -6093,7 +6115,7 @@
         <v>108</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>309.9</v>
@@ -6144,7 +6166,7 @@
         <v>109</v>
       </c>
       <c r="K116" t="n">
-        <v>7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>309.9</v>
@@ -6246,7 +6268,7 @@
         <v>110</v>
       </c>
       <c r="K118" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L118" t="n">
         <v>309.8</v>
@@ -6297,7 +6319,7 @@
         <v>112</v>
       </c>
       <c r="K119" t="n">
-        <v>-23.07692307692308</v>
+        <v>-40</v>
       </c>
       <c r="L119" t="n">
         <v>309.5</v>
@@ -6348,7 +6370,7 @@
         <v>112</v>
       </c>
       <c r="K120" t="n">
-        <v>-23.07692307692308</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>309.1</v>
@@ -6399,7 +6421,7 @@
         <v>112</v>
       </c>
       <c r="K121" t="n">
-        <v>-23.07692307692308</v>
+        <v>-50</v>
       </c>
       <c r="L121" t="n">
         <v>308.8</v>
@@ -6450,7 +6472,7 @@
         <v>113</v>
       </c>
       <c r="K122" t="n">
-        <v>-38.46153846153847</v>
+        <v>-50</v>
       </c>
       <c r="L122" t="n">
         <v>308.3</v>
@@ -6501,7 +6523,7 @@
         <v>115</v>
       </c>
       <c r="K123" t="n">
-        <v>-42.85714285714285</v>
+        <v>-50</v>
       </c>
       <c r="L123" t="n">
         <v>307.7</v>
@@ -6552,7 +6574,7 @@
         <v>115</v>
       </c>
       <c r="K124" t="n">
-        <v>-42.85714285714285</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L124" t="n">
         <v>307.3</v>
@@ -6603,7 +6625,7 @@
         <v>115</v>
       </c>
       <c r="K125" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L125" t="n">
         <v>306.8</v>
@@ -6654,7 +6676,7 @@
         <v>116</v>
       </c>
       <c r="K126" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L126" t="n">
         <v>306.1</v>
@@ -6705,7 +6727,7 @@
         <v>116</v>
       </c>
       <c r="K127" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L127" t="n">
         <v>305.4</v>
@@ -6756,7 +6778,7 @@
         <v>116</v>
       </c>
       <c r="K128" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L128" t="n">
         <v>304.8</v>
@@ -6807,7 +6829,7 @@
         <v>116</v>
       </c>
       <c r="K129" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L129" t="n">
         <v>304.4</v>
@@ -6858,7 +6880,7 @@
         <v>117</v>
       </c>
       <c r="K130" t="n">
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="L130" t="n">
         <v>303.9</v>
@@ -6909,7 +6931,7 @@
         <v>117</v>
       </c>
       <c r="K131" t="n">
-        <v>-57.14285714285714</v>
+        <v>-100</v>
       </c>
       <c r="L131" t="n">
         <v>303.4</v>
@@ -6960,7 +6982,7 @@
         <v>117</v>
       </c>
       <c r="K132" t="n">
-        <v>-69.23076923076923</v>
+        <v>-100</v>
       </c>
       <c r="L132" t="n">
         <v>303</v>
@@ -7011,7 +7033,7 @@
         <v>119</v>
       </c>
       <c r="K133" t="n">
-        <v>-71.42857142857143</v>
+        <v>-100</v>
       </c>
       <c r="L133" t="n">
         <v>302.6</v>
@@ -7062,7 +7084,7 @@
         <v>119</v>
       </c>
       <c r="K134" t="n">
-        <v>-66.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L134" t="n">
         <v>302.2</v>
@@ -7113,7 +7135,7 @@
         <v>122</v>
       </c>
       <c r="K135" t="n">
-        <v>-42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L135" t="n">
         <v>302.1</v>
@@ -7164,7 +7186,7 @@
         <v>122</v>
       </c>
       <c r="K136" t="n">
-        <v>-53.84615384615385</v>
+        <v>0</v>
       </c>
       <c r="L136" t="n">
         <v>302.1</v>
@@ -7215,7 +7237,7 @@
         <v>123</v>
       </c>
       <c r="K137" t="n">
-        <v>-42.85714285714285</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>302.2</v>
@@ -7266,7 +7288,7 @@
         <v>125</v>
       </c>
       <c r="K138" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L138" t="n">
         <v>302.5</v>
@@ -7317,7 +7339,7 @@
         <v>127</v>
       </c>
       <c r="K139" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L139" t="n">
         <v>302.6</v>
@@ -7368,7 +7390,7 @@
         <v>127</v>
       </c>
       <c r="K140" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L140" t="n">
         <v>302.8</v>
@@ -7419,7 +7441,7 @@
         <v>127</v>
       </c>
       <c r="K141" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L141" t="n">
         <v>303</v>
@@ -7470,7 +7492,7 @@
         <v>129</v>
       </c>
       <c r="K142" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="L142" t="n">
         <v>303</v>
@@ -7521,7 +7543,7 @@
         <v>130</v>
       </c>
       <c r="K143" t="n">
-        <v>-20</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L143" t="n">
         <v>303.1</v>
@@ -7572,7 +7594,7 @@
         <v>132</v>
       </c>
       <c r="K144" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L144" t="n">
         <v>303.4</v>
@@ -7623,7 +7645,7 @@
         <v>133</v>
       </c>
       <c r="K145" t="n">
-        <v>-11.11111111111111</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L145" t="n">
         <v>303.3</v>
@@ -7674,7 +7696,7 @@
         <v>134</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L146" t="n">
         <v>303.3</v>
@@ -7725,7 +7747,7 @@
         <v>135</v>
       </c>
       <c r="K147" t="n">
-        <v>-5.263157894736842</v>
+        <v>-40</v>
       </c>
       <c r="L147" t="n">
         <v>303.1</v>
@@ -7776,7 +7798,7 @@
         <v>136</v>
       </c>
       <c r="K148" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L148" t="n">
         <v>302.6</v>
@@ -7827,7 +7849,7 @@
         <v>138</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L149" t="n">
         <v>302.5</v>
@@ -7878,7 +7900,7 @@
         <v>140</v>
       </c>
       <c r="K150" t="n">
-        <v>-4.347826086956522</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L150" t="n">
         <v>302.2</v>
@@ -7929,7 +7951,7 @@
         <v>140</v>
       </c>
       <c r="K151" t="n">
-        <v>-4.347826086956522</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L151" t="n">
         <v>301.9</v>
@@ -7980,7 +8002,7 @@
         <v>141</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L152" t="n">
         <v>301.9</v>
@@ -8031,7 +8053,7 @@
         <v>141</v>
       </c>
       <c r="K153" t="n">
-        <v>9.090909090909092</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L153" t="n">
         <v>302</v>
@@ -8082,7 +8104,7 @@
         <v>141</v>
       </c>
       <c r="K154" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L154" t="n">
         <v>301.9</v>
@@ -8133,7 +8155,7 @@
         <v>141</v>
       </c>
       <c r="K155" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L155" t="n">
         <v>301.9</v>
@@ -8184,7 +8206,7 @@
         <v>141</v>
       </c>
       <c r="K156" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L156" t="n">
         <v>301.8</v>
@@ -8235,7 +8257,7 @@
         <v>142</v>
       </c>
       <c r="K157" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L157" t="n">
         <v>301.7</v>
@@ -8286,7 +8308,7 @@
         <v>143</v>
       </c>
       <c r="K158" t="n">
-        <v>-22.22222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L158" t="n">
         <v>301.8</v>
@@ -8337,7 +8359,7 @@
         <v>145</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L159" t="n">
         <v>301.9</v>
@@ -8388,7 +8410,7 @@
         <v>145</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L160" t="n">
         <v>302.2</v>
@@ -8439,7 +8461,7 @@
         <v>146</v>
       </c>
       <c r="K161" t="n">
-        <v>5.263157894736842</v>
+        <v>60</v>
       </c>
       <c r="L161" t="n">
         <v>302.6</v>
@@ -8490,7 +8512,7 @@
         <v>146</v>
       </c>
       <c r="K162" t="n">
-        <v>17.64705882352941</v>
+        <v>60</v>
       </c>
       <c r="L162" t="n">
         <v>302.9</v>
@@ -8541,7 +8563,7 @@
         <v>147</v>
       </c>
       <c r="K163" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L163" t="n">
         <v>303.1</v>
@@ -8592,7 +8614,7 @@
         <v>149</v>
       </c>
       <c r="K164" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L164" t="n">
         <v>303.1</v>
@@ -8643,7 +8665,7 @@
         <v>151</v>
       </c>
       <c r="K165" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L165" t="n">
         <v>303.3</v>
@@ -8694,7 +8716,7 @@
         <v>152</v>
       </c>
       <c r="K166" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L166" t="n">
         <v>303.6</v>
@@ -8745,7 +8767,7 @@
         <v>153</v>
       </c>
       <c r="K167" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L167" t="n">
         <v>303.9</v>
@@ -8796,7 +8818,7 @@
         <v>154</v>
       </c>
       <c r="K168" t="n">
-        <v>22.22222222222222</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L168" t="n">
         <v>304.2</v>
@@ -8847,7 +8869,7 @@
         <v>154</v>
       </c>
       <c r="K169" t="n">
-        <v>12.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L169" t="n">
         <v>304.3</v>
@@ -8898,7 +8920,7 @@
         <v>155</v>
       </c>
       <c r="K170" t="n">
-        <v>20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L170" t="n">
         <v>304.3</v>
@@ -8949,7 +8971,7 @@
         <v>155</v>
       </c>
       <c r="K171" t="n">
-        <v>20</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L171" t="n">
         <v>304.2</v>
@@ -9000,7 +9022,7 @@
         <v>158</v>
       </c>
       <c r="K172" t="n">
-        <v>29.41176470588236</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L172" t="n">
         <v>304.4</v>
@@ -9051,7 +9073,7 @@
         <v>159</v>
       </c>
       <c r="K173" t="n">
-        <v>22.22222222222222</v>
+        <v>40</v>
       </c>
       <c r="L173" t="n">
         <v>304.6</v>
@@ -9102,7 +9124,7 @@
         <v>159</v>
       </c>
       <c r="K174" t="n">
-        <v>22.22222222222222</v>
+        <v>25</v>
       </c>
       <c r="L174" t="n">
         <v>305</v>
@@ -9153,7 +9175,7 @@
         <v>159</v>
       </c>
       <c r="K175" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L175" t="n">
         <v>305.2</v>
@@ -9204,7 +9226,7 @@
         <v>159</v>
       </c>
       <c r="K176" t="n">
-        <v>22.22222222222222</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>305.3</v>
@@ -9255,7 +9277,7 @@
         <v>161</v>
       </c>
       <c r="K177" t="n">
-        <v>36.84210526315789</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L177" t="n">
         <v>305.7</v>
@@ -9306,7 +9328,7 @@
         <v>164</v>
       </c>
       <c r="K178" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L178" t="n">
         <v>306.3</v>
@@ -9357,7 +9379,7 @@
         <v>164</v>
       </c>
       <c r="K179" t="n">
-        <v>36.84210526315789</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L179" t="n">
         <v>306.9</v>
@@ -9408,7 +9430,7 @@
         <v>165</v>
       </c>
       <c r="K180" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L180" t="n">
         <v>307.5</v>
@@ -9459,7 +9481,7 @@
         <v>166</v>
       </c>
       <c r="K181" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="L181" t="n">
         <v>308.2</v>
@@ -9510,7 +9532,7 @@
         <v>167</v>
       </c>
       <c r="K182" t="n">
-        <v>23.80952380952381</v>
+        <v>50</v>
       </c>
       <c r="L182" t="n">
         <v>308.5</v>
@@ -9561,7 +9583,7 @@
         <v>168</v>
       </c>
       <c r="K183" t="n">
-        <v>23.80952380952381</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L183" t="n">
         <v>308.8</v>
@@ -9612,7 +9634,7 @@
         <v>168</v>
       </c>
       <c r="K184" t="n">
-        <v>36.84210526315789</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>309.1</v>
@@ -9663,7 +9685,7 @@
         <v>168</v>
       </c>
       <c r="K185" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L185" t="n">
         <v>309.4</v>
@@ -9765,7 +9787,7 @@
         <v>171</v>
       </c>
       <c r="K187" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L187" t="n">
         <v>310.1</v>
@@ -9816,7 +9838,7 @@
         <v>171</v>
       </c>
       <c r="K188" t="n">
-        <v>29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L188" t="n">
         <v>310</v>
@@ -9867,7 +9889,7 @@
         <v>171</v>
       </c>
       <c r="K189" t="n">
-        <v>29.41176470588236</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>309.9</v>
@@ -9918,7 +9940,7 @@
         <v>172</v>
       </c>
       <c r="K190" t="n">
-        <v>41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L190" t="n">
         <v>310</v>
@@ -9969,7 +9991,7 @@
         <v>173</v>
       </c>
       <c r="K191" t="n">
-        <v>44.44444444444444</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L191" t="n">
         <v>310.1</v>
@@ -10020,7 +10042,7 @@
         <v>174</v>
       </c>
       <c r="K192" t="n">
-        <v>37.5</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L192" t="n">
         <v>310.4</v>
@@ -10071,7 +10093,7 @@
         <v>175</v>
       </c>
       <c r="K193" t="n">
-        <v>37.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L193" t="n">
         <v>310.7</v>
@@ -10122,7 +10144,7 @@
         <v>176</v>
       </c>
       <c r="K194" t="n">
-        <v>29.41176470588236</v>
+        <v>25</v>
       </c>
       <c r="L194" t="n">
         <v>310.9</v>
@@ -10173,7 +10195,7 @@
         <v>177</v>
       </c>
       <c r="K195" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L195" t="n">
         <v>311.2</v>
@@ -10275,7 +10297,7 @@
         <v>177</v>
       </c>
       <c r="K197" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L197" t="n">
         <v>311.5</v>
@@ -10326,7 +10348,7 @@
         <v>178</v>
       </c>
       <c r="K198" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L198" t="n">
         <v>311.8</v>
@@ -10428,7 +10450,7 @@
         <v>181</v>
       </c>
       <c r="K200" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>312</v>
@@ -10479,7 +10501,7 @@
         <v>182</v>
       </c>
       <c r="K201" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>312.1</v>
@@ -10530,7 +10552,7 @@
         <v>182</v>
       </c>
       <c r="K202" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L202" t="n">
         <v>312.1</v>
@@ -10581,7 +10603,7 @@
         <v>183</v>
       </c>
       <c r="K203" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L203" t="n">
         <v>312.3</v>
@@ -10632,7 +10654,7 @@
         <v>184</v>
       </c>
       <c r="K204" t="n">
-        <v>37.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L204" t="n">
         <v>312.7</v>
@@ -10683,7 +10705,7 @@
         <v>186</v>
       </c>
       <c r="K205" t="n">
-        <v>44.44444444444444</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L205" t="n">
         <v>313.2</v>
@@ -10734,7 +10756,7 @@
         <v>187</v>
       </c>
       <c r="K206" t="n">
-        <v>29.41176470588236</v>
+        <v>40</v>
       </c>
       <c r="L206" t="n">
         <v>313.6</v>
@@ -10785,7 +10807,7 @@
         <v>188</v>
       </c>
       <c r="K207" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L207" t="n">
         <v>313.9</v>
@@ -10836,7 +10858,7 @@
         <v>190</v>
       </c>
       <c r="K208" t="n">
-        <v>36.84210526315789</v>
+        <v>60</v>
       </c>
       <c r="L208" t="n">
         <v>314.3</v>
@@ -10887,7 +10909,7 @@
         <v>192</v>
       </c>
       <c r="K209" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L209" t="n">
         <v>314.7</v>
@@ -10938,7 +10960,7 @@
         <v>193</v>
       </c>
       <c r="K210" t="n">
-        <v>23.80952380952381</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L210" t="n">
         <v>315.1</v>
@@ -10989,7 +11011,7 @@
         <v>195</v>
       </c>
       <c r="K211" t="n">
-        <v>9.090909090909092</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L211" t="n">
         <v>315.2</v>
@@ -11040,7 +11062,7 @@
         <v>196</v>
       </c>
       <c r="K212" t="n">
-        <v>9.090909090909092</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L212" t="n">
         <v>315.4</v>
@@ -11091,7 +11113,7 @@
         <v>196</v>
       </c>
       <c r="K213" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>315.5</v>
@@ -11142,7 +11164,7 @@
         <v>197</v>
       </c>
       <c r="K214" t="n">
-        <v>14.28571428571428</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L214" t="n">
         <v>315.4</v>
@@ -11193,7 +11215,7 @@
         <v>197</v>
       </c>
       <c r="K215" t="n">
-        <v>10</v>
+        <v>-20</v>
       </c>
       <c r="L215" t="n">
         <v>315.1</v>
@@ -11244,7 +11266,7 @@
         <v>197</v>
       </c>
       <c r="K216" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L216" t="n">
         <v>314.9</v>
@@ -11295,7 +11317,7 @@
         <v>197</v>
       </c>
       <c r="K217" t="n">
-        <v>10</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L217" t="n">
         <v>314.8</v>
@@ -11346,7 +11368,7 @@
         <v>197</v>
       </c>
       <c r="K218" t="n">
-        <v>5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L218" t="n">
         <v>314.5</v>
@@ -11397,7 +11419,7 @@
         <v>198</v>
       </c>
       <c r="K219" t="n">
-        <v>22.22222222222222</v>
+        <v>-20</v>
       </c>
       <c r="L219" t="n">
         <v>314.5</v>
@@ -11448,7 +11470,7 @@
         <v>198</v>
       </c>
       <c r="K220" t="n">
-        <v>17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L220" t="n">
         <v>314.4</v>
@@ -11499,7 +11521,7 @@
         <v>202</v>
       </c>
       <c r="K221" t="n">
-        <v>30</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L221" t="n">
         <v>314.9</v>
@@ -11550,7 +11572,7 @@
         <v>204</v>
       </c>
       <c r="K222" t="n">
-        <v>36.36363636363637</v>
+        <v>75</v>
       </c>
       <c r="L222" t="n">
         <v>315.5</v>
@@ -11601,7 +11623,7 @@
         <v>206</v>
       </c>
       <c r="K223" t="n">
-        <v>21.73913043478261</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L223" t="n">
         <v>315.9</v>
@@ -11652,7 +11674,7 @@
         <v>206</v>
       </c>
       <c r="K224" t="n">
-        <v>18.18181818181818</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L224" t="n">
         <v>316.4</v>
@@ -11703,7 +11725,7 @@
         <v>209</v>
       </c>
       <c r="K225" t="n">
-        <v>21.73913043478261</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L225" t="n">
         <v>317.2</v>
@@ -11754,7 +11776,7 @@
         <v>210</v>
       </c>
       <c r="K226" t="n">
-        <v>30.43478260869566</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L226" t="n">
         <v>318.1</v>
@@ -11805,7 +11827,7 @@
         <v>211</v>
       </c>
       <c r="K227" t="n">
-        <v>39.1304347826087</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L227" t="n">
         <v>319.1</v>
@@ -11856,7 +11878,7 @@
         <v>212</v>
       </c>
       <c r="K228" t="n">
-        <v>36.36363636363637</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L228" t="n">
         <v>320.2</v>
@@ -11907,7 +11929,7 @@
         <v>212</v>
       </c>
       <c r="K229" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L229" t="n">
         <v>321.2</v>
@@ -11958,7 +11980,7 @@
         <v>212</v>
       </c>
       <c r="K230" t="n">
-        <v>47.36842105263158</v>
+        <v>60</v>
       </c>
       <c r="L230" t="n">
         <v>322.2</v>
@@ -12009,7 +12031,7 @@
         <v>212</v>
       </c>
       <c r="K231" t="n">
-        <v>64.70588235294117</v>
+        <v>50</v>
       </c>
       <c r="L231" t="n">
         <v>322.8</v>
@@ -12060,7 +12082,7 @@
         <v>213</v>
       </c>
       <c r="K232" t="n">
-        <v>52.94117647058824</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L232" t="n">
         <v>323.1</v>
@@ -12111,7 +12133,7 @@
         <v>214</v>
       </c>
       <c r="K233" t="n">
-        <v>44.44444444444444</v>
+        <v>50</v>
       </c>
       <c r="L233" t="n">
         <v>323.5</v>
@@ -12162,7 +12184,7 @@
         <v>216</v>
       </c>
       <c r="K234" t="n">
-        <v>36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L234" t="n">
         <v>323.7</v>
@@ -12213,7 +12235,7 @@
         <v>216</v>
       </c>
       <c r="K235" t="n">
-        <v>36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L235" t="n">
         <v>323.6</v>
@@ -12264,7 +12286,7 @@
         <v>217</v>
       </c>
       <c r="K236" t="n">
-        <v>30</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L236" t="n">
         <v>323.3</v>
@@ -12315,7 +12337,7 @@
         <v>218</v>
       </c>
       <c r="K237" t="n">
-        <v>33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L237" t="n">
         <v>323</v>
@@ -12366,7 +12388,7 @@
         <v>219</v>
       </c>
       <c r="K238" t="n">
-        <v>27.27272727272727</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L238" t="n">
         <v>322.5</v>
@@ -12417,7 +12439,7 @@
         <v>221</v>
       </c>
       <c r="K239" t="n">
-        <v>30.43478260869566</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L239" t="n">
         <v>322.2</v>
@@ -12468,7 +12490,7 @@
         <v>223</v>
       </c>
       <c r="K240" t="n">
-        <v>36</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L240" t="n">
         <v>322.1</v>
@@ -12519,7 +12541,7 @@
         <v>223</v>
       </c>
       <c r="K241" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L241" t="n">
         <v>322</v>
@@ -12621,7 +12643,7 @@
         <v>225</v>
       </c>
       <c r="K243" t="n">
-        <v>36.84210526315789</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L243" t="n">
         <v>322.4</v>
@@ -12672,7 +12694,7 @@
         <v>225</v>
       </c>
       <c r="K244" t="n">
-        <v>36.84210526315789</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L244" t="n">
         <v>322.9</v>
@@ -12723,7 +12745,7 @@
         <v>226</v>
       </c>
       <c r="K245" t="n">
-        <v>17.64705882352941</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L245" t="n">
         <v>323.3</v>
@@ -12774,7 +12796,7 @@
         <v>228</v>
       </c>
       <c r="K246" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L246" t="n">
         <v>323.6</v>
@@ -12825,7 +12847,7 @@
         <v>230</v>
       </c>
       <c r="K247" t="n">
-        <v>-15.78947368421053</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L247" t="n">
         <v>323.6</v>
@@ -12876,7 +12898,7 @@
         <v>232</v>
       </c>
       <c r="K248" t="n">
-        <v>-10</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L248" t="n">
         <v>323.9</v>
@@ -12927,7 +12949,7 @@
         <v>232</v>
       </c>
       <c r="K249" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L249" t="n">
         <v>324</v>
@@ -12978,7 +13000,7 @@
         <v>233</v>
       </c>
       <c r="K250" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L250" t="n">
         <v>324</v>
@@ -13029,7 +13051,7 @@
         <v>233</v>
       </c>
       <c r="K251" t="n">
-        <v>-4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L251" t="n">
         <v>324</v>
@@ -13080,7 +13102,7 @@
         <v>234</v>
       </c>
       <c r="K252" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L252" t="n">
         <v>324</v>
@@ -13131,7 +13153,7 @@
         <v>235</v>
       </c>
       <c r="K253" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L253" t="n">
         <v>323.8</v>
@@ -13182,7 +13204,7 @@
         <v>235</v>
       </c>
       <c r="K254" t="n">
-        <v>15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L254" t="n">
         <v>323.6</v>
@@ -13233,7 +13255,7 @@
         <v>236</v>
       </c>
       <c r="K255" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L255" t="n">
         <v>323.6</v>
@@ -13284,7 +13306,7 @@
         <v>237</v>
       </c>
       <c r="K256" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L256" t="n">
         <v>323.7</v>
@@ -13335,7 +13357,7 @@
         <v>237</v>
       </c>
       <c r="K257" t="n">
-        <v>15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L257" t="n">
         <v>324</v>
@@ -13386,7 +13408,7 @@
         <v>238</v>
       </c>
       <c r="K258" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L258" t="n">
         <v>324</v>
@@ -13437,7 +13459,7 @@
         <v>240</v>
       </c>
       <c r="K259" t="n">
-        <v>-5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L259" t="n">
         <v>323.8</v>
@@ -13488,7 +13510,7 @@
         <v>240</v>
       </c>
       <c r="K260" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L260" t="n">
         <v>323.5</v>
@@ -13539,7 +13561,7 @@
         <v>241</v>
       </c>
       <c r="K261" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L261" t="n">
         <v>323.3</v>
@@ -13590,7 +13612,7 @@
         <v>242</v>
       </c>
       <c r="K262" t="n">
-        <v>-11.11111111111111</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L262" t="n">
         <v>323.1</v>
@@ -13641,7 +13663,7 @@
         <v>245</v>
       </c>
       <c r="K263" t="n">
-        <v>-30</v>
+        <v>-40</v>
       </c>
       <c r="L263" t="n">
         <v>322.7</v>
@@ -13692,7 +13714,7 @@
         <v>246</v>
       </c>
       <c r="K264" t="n">
-        <v>-23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L264" t="n">
         <v>322.4</v>
@@ -13794,7 +13816,7 @@
         <v>249</v>
       </c>
       <c r="K266" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L266" t="n">
         <v>322</v>
@@ -13845,7 +13867,7 @@
         <v>250</v>
       </c>
       <c r="K267" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L267" t="n">
         <v>321.7</v>
@@ -13896,7 +13918,7 @@
         <v>250</v>
       </c>
       <c r="K268" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>321.5</v>
@@ -13947,7 +13969,7 @@
         <v>250</v>
       </c>
       <c r="K269" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L269" t="n">
         <v>321.5</v>
@@ -13998,7 +14020,7 @@
         <v>251</v>
       </c>
       <c r="K270" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L270" t="n">
         <v>321.6</v>
@@ -14100,7 +14122,7 @@
         <v>251</v>
       </c>
       <c r="K272" t="n">
-        <v>-17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L272" t="n">
         <v>321.5</v>
@@ -14151,7 +14173,7 @@
         <v>251</v>
       </c>
       <c r="K273" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L273" t="n">
         <v>321.7</v>
@@ -14202,7 +14224,7 @@
         <v>251</v>
       </c>
       <c r="K274" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L274" t="n">
         <v>321.8</v>
@@ -14253,7 +14275,7 @@
         <v>251</v>
       </c>
       <c r="K275" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L275" t="n">
         <v>321.7</v>
@@ -14304,7 +14326,7 @@
         <v>251</v>
       </c>
       <c r="K276" t="n">
-        <v>-14.28571428571428</v>
+        <v>100</v>
       </c>
       <c r="L276" t="n">
         <v>321.7</v>
@@ -14355,7 +14377,7 @@
         <v>252</v>
       </c>
       <c r="K277" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L277" t="n">
         <v>321.7</v>
@@ -14406,7 +14428,7 @@
         <v>254</v>
       </c>
       <c r="K278" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L278" t="n">
         <v>321.9</v>
@@ -14457,7 +14479,7 @@
         <v>258</v>
       </c>
       <c r="K279" t="n">
-        <v>-11.11111111111111</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L279" t="n">
         <v>321.7</v>
@@ -14508,7 +14530,7 @@
         <v>260</v>
       </c>
       <c r="K280" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L280" t="n">
         <v>321.2</v>
@@ -14559,7 +14581,7 @@
         <v>262</v>
       </c>
       <c r="K281" t="n">
-        <v>-33.33333333333333</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L281" t="n">
         <v>320.5</v>
@@ -14610,7 +14632,7 @@
         <v>263</v>
       </c>
       <c r="K282" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L282" t="n">
         <v>319.9</v>
@@ -14661,7 +14683,7 @@
         <v>264</v>
       </c>
       <c r="K283" t="n">
-        <v>-26.31578947368421</v>
+        <v>-53.84615384615385</v>
       </c>
       <c r="L283" t="n">
         <v>319.2</v>
@@ -14712,7 +14734,7 @@
         <v>266</v>
       </c>
       <c r="K284" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L284" t="n">
         <v>318.7</v>
@@ -14814,7 +14836,7 @@
         <v>266</v>
       </c>
       <c r="K286" t="n">
-        <v>-29.41176470588236</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L286" t="n">
         <v>317.7</v>
@@ -14865,7 +14887,7 @@
         <v>266</v>
       </c>
       <c r="K287" t="n">
-        <v>-25</v>
+        <v>-50</v>
       </c>
       <c r="L287" t="n">
         <v>317.3</v>
@@ -14967,7 +14989,7 @@
         <v>267</v>
       </c>
       <c r="K289" t="n">
-        <v>-29.41176470588236</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L289" t="n">
         <v>316.4</v>
@@ -15018,7 +15040,7 @@
         <v>268</v>
       </c>
       <c r="K290" t="n">
-        <v>-41.17647058823529</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>316.2</v>
@@ -15069,7 +15091,7 @@
         <v>269</v>
       </c>
       <c r="K291" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>316.3</v>
@@ -15120,7 +15142,7 @@
         <v>269</v>
       </c>
       <c r="K292" t="n">
-        <v>-33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L292" t="n">
         <v>316.3</v>
@@ -15273,7 +15295,7 @@
         <v>271</v>
       </c>
       <c r="K295" t="n">
-        <v>-40</v>
+        <v>-60</v>
       </c>
       <c r="L295" t="n">
         <v>316</v>
@@ -15324,7 +15346,7 @@
         <v>273</v>
       </c>
       <c r="K296" t="n">
-        <v>-27.27272727272727</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L296" t="n">
         <v>315.9</v>
@@ -15375,7 +15397,7 @@
         <v>274</v>
       </c>
       <c r="K297" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L297" t="n">
         <v>315.9</v>
@@ -15426,7 +15448,7 @@
         <v>275</v>
       </c>
       <c r="K298" t="n">
-        <v>-23.80952380952381</v>
+        <v>25</v>
       </c>
       <c r="L298" t="n">
         <v>316</v>
@@ -15477,7 +15499,7 @@
         <v>275</v>
       </c>
       <c r="K299" t="n">
-        <v>-5.88235294117647</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L299" t="n">
         <v>316.2</v>
@@ -15528,7 +15550,7 @@
         <v>275</v>
       </c>
       <c r="K300" t="n">
-        <v>6.666666666666667</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L300" t="n">
         <v>316.5</v>
@@ -15579,7 +15601,7 @@
         <v>275</v>
       </c>
       <c r="K301" t="n">
-        <v>23.07692307692308</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L301" t="n">
         <v>316.7</v>
@@ -15630,7 +15652,7 @@
         <v>276</v>
       </c>
       <c r="K302" t="n">
-        <v>7.692307692307693</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L302" t="n">
         <v>316.8</v>
@@ -15681,7 +15703,7 @@
         <v>276</v>
       </c>
       <c r="K303" t="n">
-        <v>16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L303" t="n">
         <v>316.9</v>
@@ -15732,7 +15754,7 @@
         <v>277</v>
       </c>
       <c r="K304" t="n">
-        <v>9.090909090909092</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L304" t="n">
         <v>317.1</v>
@@ -15783,7 +15805,7 @@
         <v>278</v>
       </c>
       <c r="K305" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L305" t="n">
         <v>317.4</v>
@@ -15834,7 +15856,7 @@
         <v>279</v>
       </c>
       <c r="K306" t="n">
-        <v>7.692307692307693</v>
+        <v>20</v>
       </c>
       <c r="L306" t="n">
         <v>317.6</v>
@@ -15885,7 +15907,7 @@
         <v>280</v>
       </c>
       <c r="K307" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L307" t="n">
         <v>317.6</v>
@@ -15936,7 +15958,7 @@
         <v>280</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L308" t="n">
         <v>317.5</v>
@@ -15987,7 +16009,7 @@
         <v>281</v>
       </c>
       <c r="K309" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
         <v>317.5</v>
@@ -16038,7 +16060,7 @@
         <v>284</v>
       </c>
       <c r="K310" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L310" t="n">
         <v>317.2</v>
@@ -16089,7 +16111,7 @@
         <v>287</v>
       </c>
       <c r="K311" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L311" t="n">
         <v>317.2</v>
@@ -16140,7 +16162,7 @@
         <v>289</v>
       </c>
       <c r="K312" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L312" t="n">
         <v>317.1</v>
@@ -16191,7 +16213,7 @@
         <v>289</v>
       </c>
       <c r="K313" t="n">
-        <v>0</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L313" t="n">
         <v>317</v>
@@ -16242,7 +16264,7 @@
         <v>291</v>
       </c>
       <c r="K314" t="n">
-        <v>9.090909090909092</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L314" t="n">
         <v>317</v>
@@ -16293,7 +16315,7 @@
         <v>291</v>
       </c>
       <c r="K315" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L315" t="n">
         <v>317.1</v>
@@ -16344,7 +16366,7 @@
         <v>291</v>
       </c>
       <c r="K316" t="n">
-        <v>11.11111111111111</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L316" t="n">
         <v>317.1</v>
@@ -16395,7 +16417,7 @@
         <v>291</v>
       </c>
       <c r="K317" t="n">
-        <v>5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L317" t="n">
         <v>317.2</v>
@@ -16446,7 +16468,7 @@
         <v>292</v>
       </c>
       <c r="K318" t="n">
-        <v>-5.88235294117647</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L318" t="n">
         <v>317.2</v>
@@ -16497,7 +16519,7 @@
         <v>293</v>
       </c>
       <c r="K319" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L319" t="n">
         <v>317.2</v>
@@ -16548,7 +16570,7 @@
         <v>294</v>
       </c>
       <c r="K320" t="n">
-        <v>5.263157894736842</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L320" t="n">
         <v>317.6</v>
@@ -16599,7 +16621,7 @@
         <v>297</v>
       </c>
       <c r="K321" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L321" t="n">
         <v>317.4</v>
@@ -16650,7 +16672,7 @@
         <v>300</v>
       </c>
       <c r="K322" t="n">
-        <v>8.333333333333332</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L322" t="n">
         <v>317.7</v>
@@ -16701,7 +16723,7 @@
         <v>304</v>
       </c>
       <c r="K323" t="n">
-        <v>-7.142857142857142</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L323" t="n">
         <v>317.6</v>
@@ -16752,7 +16774,7 @@
         <v>306</v>
       </c>
       <c r="K324" t="n">
-        <v>-3.448275862068965</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L324" t="n">
         <v>317.5</v>
@@ -16803,7 +16825,7 @@
         <v>306</v>
       </c>
       <c r="K325" t="n">
-        <v>0</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L325" t="n">
         <v>317.4</v>
@@ -16905,7 +16927,7 @@
         <v>307</v>
       </c>
       <c r="K327" t="n">
-        <v>3.703703703703703</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L327" t="n">
         <v>317.4</v>
@@ -16956,7 +16978,7 @@
         <v>307</v>
       </c>
       <c r="K328" t="n">
-        <v>3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L328" t="n">
         <v>317.5</v>
@@ -17007,7 +17029,7 @@
         <v>307</v>
       </c>
       <c r="K329" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L329" t="n">
         <v>317.5</v>
@@ -17058,7 +17080,7 @@
         <v>307</v>
       </c>
       <c r="K330" t="n">
-        <v>13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L330" t="n">
         <v>317.4</v>
@@ -17109,7 +17131,7 @@
         <v>307</v>
       </c>
       <c r="K331" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L331" t="n">
         <v>317.6</v>
@@ -17160,7 +17182,7 @@
         <v>307</v>
       </c>
       <c r="K332" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L332" t="n">
         <v>317.5</v>
@@ -17211,7 +17233,7 @@
         <v>307</v>
       </c>
       <c r="K333" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L333" t="n">
         <v>317.8</v>
@@ -17262,7 +17284,7 @@
         <v>307</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L334" t="n">
         <v>317.9</v>
@@ -17313,7 +17335,7 @@
         <v>309</v>
       </c>
       <c r="K335" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L335" t="n">
         <v>318.2</v>
@@ -17415,7 +17437,7 @@
         <v>313</v>
       </c>
       <c r="K337" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L337" t="n">
         <v>318.4</v>
@@ -17466,7 +17488,7 @@
         <v>313</v>
       </c>
       <c r="K338" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>318.6</v>
@@ -17517,7 +17539,7 @@
         <v>314</v>
       </c>
       <c r="K339" t="n">
-        <v>4.761904761904762</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L339" t="n">
         <v>318.7</v>
@@ -17568,7 +17590,7 @@
         <v>314</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L340" t="n">
         <v>318.8</v>
@@ -17619,7 +17641,7 @@
         <v>314</v>
       </c>
       <c r="K341" t="n">
-        <v>17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L341" t="n">
         <v>318.9</v>
@@ -17670,7 +17692,7 @@
         <v>316</v>
       </c>
       <c r="K342" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L342" t="n">
         <v>319.2</v>
@@ -17721,7 +17743,7 @@
         <v>316</v>
       </c>
       <c r="K343" t="n">
-        <v>50</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L343" t="n">
         <v>319.5</v>
@@ -17772,7 +17794,7 @@
         <v>316</v>
       </c>
       <c r="K344" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L344" t="n">
         <v>319.8</v>
@@ -17823,7 +17845,7 @@
         <v>316</v>
       </c>
       <c r="K345" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="L345" t="n">
         <v>319.9</v>
@@ -17874,7 +17896,7 @@
         <v>318</v>
       </c>
       <c r="K346" t="n">
-        <v>45.45454545454545</v>
+        <v>60</v>
       </c>
       <c r="L346" t="n">
         <v>320.4</v>
@@ -17976,7 +17998,7 @@
         <v>319</v>
       </c>
       <c r="K348" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L348" t="n">
         <v>320.8</v>
@@ -18027,7 +18049,7 @@
         <v>319</v>
       </c>
       <c r="K349" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L349" t="n">
         <v>321.1</v>
@@ -18078,7 +18100,7 @@
         <v>319</v>
       </c>
       <c r="K350" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L350" t="n">
         <v>321.4</v>
@@ -18129,7 +18151,7 @@
         <v>320</v>
       </c>
       <c r="K351" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L351" t="n">
         <v>321.8</v>
@@ -18180,7 +18202,7 @@
         <v>321</v>
       </c>
       <c r="K352" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L352" t="n">
         <v>321.9</v>
@@ -18231,7 +18253,7 @@
         <v>321</v>
       </c>
       <c r="K353" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L353" t="n">
         <v>322</v>
@@ -18282,7 +18304,7 @@
         <v>323</v>
       </c>
       <c r="K354" t="n">
-        <v>37.5</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L354" t="n">
         <v>322.3</v>
@@ -18333,7 +18355,7 @@
         <v>323</v>
       </c>
       <c r="K355" t="n">
-        <v>28.57142857142857</v>
+        <v>20</v>
       </c>
       <c r="L355" t="n">
         <v>322.6</v>
@@ -18435,7 +18457,7 @@
         <v>323</v>
       </c>
       <c r="K357" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L357" t="n">
         <v>322.9</v>
@@ -18486,7 +18508,7 @@
         <v>323</v>
       </c>
       <c r="K358" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="L358" t="n">
         <v>323.1</v>
@@ -18588,7 +18610,7 @@
         <v>325</v>
       </c>
       <c r="K360" t="n">
-        <v>45.45454545454545</v>
+        <v>20</v>
       </c>
       <c r="L360" t="n">
         <v>323.6</v>
@@ -18639,7 +18661,7 @@
         <v>326</v>
       </c>
       <c r="K361" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="L361" t="n">
         <v>323.8</v>
@@ -18690,7 +18712,7 @@
         <v>327</v>
       </c>
       <c r="K362" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>324</v>
@@ -18741,7 +18763,7 @@
         <v>329</v>
       </c>
       <c r="K363" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L363" t="n">
         <v>324.4</v>
@@ -18792,7 +18814,7 @@
         <v>329</v>
       </c>
       <c r="K364" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>324.6</v>
@@ -18843,7 +18865,7 @@
         <v>329</v>
       </c>
       <c r="K365" t="n">
-        <v>38.46153846153847</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>324.8</v>
@@ -18894,7 +18916,7 @@
         <v>332</v>
       </c>
       <c r="K366" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L366" t="n">
         <v>324.7</v>
@@ -18945,7 +18967,7 @@
         <v>332</v>
       </c>
       <c r="K367" t="n">
-        <v>7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L367" t="n">
         <v>324.6</v>
@@ -18996,7 +19018,7 @@
         <v>333</v>
       </c>
       <c r="K368" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L368" t="n">
         <v>324.4</v>
@@ -19047,7 +19069,7 @@
         <v>334</v>
       </c>
       <c r="K369" t="n">
-        <v>-6.666666666666667</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L369" t="n">
         <v>324</v>
@@ -19098,7 +19120,7 @@
         <v>334</v>
       </c>
       <c r="K370" t="n">
-        <v>-6.666666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L370" t="n">
         <v>323.7</v>
@@ -19149,7 +19171,7 @@
         <v>335</v>
       </c>
       <c r="K371" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L371" t="n">
         <v>323.4</v>
@@ -19200,7 +19222,7 @@
         <v>337</v>
       </c>
       <c r="K372" t="n">
-        <v>-12.5</v>
+        <v>-75</v>
       </c>
       <c r="L372" t="n">
         <v>323</v>
@@ -19251,7 +19273,7 @@
         <v>337</v>
       </c>
       <c r="K373" t="n">
-        <v>-12.5</v>
+        <v>-75</v>
       </c>
       <c r="L373" t="n">
         <v>322.4</v>
@@ -19302,7 +19324,7 @@
         <v>338</v>
       </c>
       <c r="K374" t="n">
-        <v>-20</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L374" t="n">
         <v>321.9</v>
@@ -19353,7 +19375,7 @@
         <v>339</v>
       </c>
       <c r="K375" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L375" t="n">
         <v>321.3</v>
@@ -19404,7 +19426,7 @@
         <v>339</v>
       </c>
       <c r="K376" t="n">
-        <v>-25</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L376" t="n">
         <v>321</v>
@@ -19455,7 +19477,7 @@
         <v>339</v>
       </c>
       <c r="K377" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L377" t="n">
         <v>320.7</v>
@@ -19506,7 +19528,7 @@
         <v>340</v>
       </c>
       <c r="K378" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L378" t="n">
         <v>320.6</v>
@@ -19557,7 +19579,7 @@
         <v>341</v>
       </c>
       <c r="K379" t="n">
-        <v>-17.64705882352941</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L379" t="n">
         <v>320.7</v>
@@ -19608,7 +19630,7 @@
         <v>344</v>
       </c>
       <c r="K380" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L380" t="n">
         <v>320.5</v>
@@ -19659,7 +19681,7 @@
         <v>347</v>
       </c>
       <c r="K381" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L381" t="n">
         <v>320.5</v>
@@ -19710,7 +19732,7 @@
         <v>350</v>
       </c>
       <c r="K382" t="n">
-        <v>4.347826086956522</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L382" t="n">
         <v>321</v>
@@ -19761,7 +19783,7 @@
         <v>350</v>
       </c>
       <c r="K383" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L383" t="n">
         <v>321.5</v>
@@ -19812,7 +19834,7 @@
         <v>351</v>
       </c>
       <c r="K384" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L384" t="n">
         <v>321.8</v>
@@ -19863,7 +19885,7 @@
         <v>352</v>
       </c>
       <c r="K385" t="n">
-        <v>-4.347826086956522</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L385" t="n">
         <v>322.3</v>
@@ -19914,7 +19936,7 @@
         <v>352</v>
       </c>
       <c r="K386" t="n">
-        <v>10</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L386" t="n">
         <v>322.8</v>
@@ -19965,7 +19987,7 @@
         <v>353</v>
       </c>
       <c r="K387" t="n">
-        <v>4.761904761904762</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L387" t="n">
         <v>323.2</v>
@@ -20016,7 +20038,7 @@
         <v>353</v>
       </c>
       <c r="K388" t="n">
-        <v>10</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L388" t="n">
         <v>323.5</v>
@@ -20067,7 +20089,7 @@
         <v>354</v>
       </c>
       <c r="K389" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="L389" t="n">
         <v>323.8</v>
@@ -20118,7 +20140,7 @@
         <v>354</v>
       </c>
       <c r="K390" t="n">
-        <v>20</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L390" t="n">
         <v>324.4</v>
@@ -20169,7 +20191,7 @@
         <v>359</v>
       </c>
       <c r="K391" t="n">
-        <v>-8.333333333333332</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L391" t="n">
         <v>324.2</v>
@@ -20220,7 +20242,7 @@
         <v>360</v>
       </c>
       <c r="K392" t="n">
-        <v>-4.347826086956522</v>
+        <v>-60</v>
       </c>
       <c r="L392" t="n">
         <v>323.6</v>
@@ -20271,7 +20293,7 @@
         <v>362</v>
       </c>
       <c r="K393" t="n">
-        <v>4</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L393" t="n">
         <v>323.2</v>
@@ -20322,7 +20344,7 @@
         <v>363</v>
       </c>
       <c r="K394" t="n">
-        <v>-4</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L394" t="n">
         <v>322.8</v>
@@ -20373,7 +20395,7 @@
         <v>363</v>
       </c>
       <c r="K395" t="n">
-        <v>0</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L395" t="n">
         <v>322.3</v>
@@ -20424,7 +20446,7 @@
         <v>365</v>
       </c>
       <c r="K396" t="n">
-        <v>7.692307692307693</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L396" t="n">
         <v>322</v>
@@ -20475,7 +20497,7 @@
         <v>366</v>
       </c>
       <c r="K397" t="n">
-        <v>3.703703703703703</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L397" t="n">
         <v>321.7</v>
@@ -20526,7 +20548,7 @@
         <v>367</v>
       </c>
       <c r="K398" t="n">
-        <v>3.703703703703703</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L398" t="n">
         <v>321.5</v>
@@ -20577,7 +20599,7 @@
         <v>367</v>
       </c>
       <c r="K399" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L399" t="n">
         <v>321.2</v>
@@ -20628,7 +20650,7 @@
         <v>369</v>
       </c>
       <c r="K400" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L400" t="n">
         <v>320.7</v>
@@ -20679,7 +20701,7 @@
         <v>370</v>
       </c>
       <c r="K401" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L401" t="n">
         <v>320.6</v>
@@ -20730,7 +20752,7 @@
         <v>371</v>
       </c>
       <c r="K402" t="n">
-        <v>-23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L402" t="n">
         <v>320.7</v>
@@ -20781,7 +20803,7 @@
         <v>372</v>
       </c>
       <c r="K403" t="n">
-        <v>-27.27272727272727</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L403" t="n">
         <v>320.5</v>
@@ -20832,7 +20854,7 @@
         <v>372</v>
       </c>
       <c r="K404" t="n">
-        <v>-23.80952380952381</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L404" t="n">
         <v>320.4</v>
@@ -20883,7 +20905,7 @@
         <v>373</v>
       </c>
       <c r="K405" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L405" t="n">
         <v>320.2</v>
@@ -20934,7 +20956,7 @@
         <v>375</v>
       </c>
       <c r="K406" t="n">
-        <v>-21.73913043478261</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L406" t="n">
         <v>320</v>
@@ -20985,7 +21007,7 @@
         <v>375</v>
       </c>
       <c r="K407" t="n">
-        <v>-18.18181818181818</v>
+        <v>-25</v>
       </c>
       <c r="L407" t="n">
         <v>319.9</v>
@@ -21036,7 +21058,7 @@
         <v>376</v>
       </c>
       <c r="K408" t="n">
-        <v>-21.73913043478261</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L408" t="n">
         <v>319.6</v>
@@ -21087,7 +21109,7 @@
         <v>377</v>
       </c>
       <c r="K409" t="n">
-        <v>-30.43478260869566</v>
+        <v>-25</v>
       </c>
       <c r="L409" t="n">
         <v>319.2</v>
@@ -21138,7 +21160,7 @@
         <v>380</v>
       </c>
       <c r="K410" t="n">
-        <v>-15.38461538461539</v>
+        <v>20</v>
       </c>
       <c r="L410" t="n">
         <v>319.3</v>
@@ -21189,7 +21211,7 @@
         <v>381</v>
       </c>
       <c r="K411" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L411" t="n">
         <v>319.6</v>
@@ -21240,7 +21262,7 @@
         <v>381</v>
       </c>
       <c r="K412" t="n">
-        <v>14.28571428571428</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L412" t="n">
         <v>319.8</v>
@@ -21291,7 +21313,7 @@
         <v>382</v>
       </c>
       <c r="K413" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L413" t="n">
         <v>320.2</v>
@@ -21342,7 +21364,7 @@
         <v>383</v>
       </c>
       <c r="K414" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L414" t="n">
         <v>320.5</v>
@@ -21393,7 +21415,7 @@
         <v>383</v>
       </c>
       <c r="K415" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="L415" t="n">
         <v>320.9</v>
@@ -21444,7 +21466,7 @@
         <v>385</v>
       </c>
       <c r="K416" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L416" t="n">
         <v>321.3</v>
@@ -21495,7 +21517,7 @@
         <v>386</v>
       </c>
       <c r="K417" t="n">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="L417" t="n">
         <v>321.6</v>
@@ -21546,7 +21568,7 @@
         <v>387</v>
       </c>
       <c r="K418" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="L418" t="n">
         <v>321.9</v>
@@ -21597,7 +21619,7 @@
         <v>388</v>
       </c>
       <c r="K419" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L419" t="n">
         <v>322.2</v>
@@ -21648,7 +21670,7 @@
         <v>389</v>
       </c>
       <c r="K420" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="L420" t="n">
         <v>322.3</v>
@@ -21699,7 +21721,7 @@
         <v>390</v>
       </c>
       <c r="K421" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L421" t="n">
         <v>322.2</v>
@@ -21750,7 +21772,7 @@
         <v>391</v>
       </c>
       <c r="K422" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L422" t="n">
         <v>322.2</v>
@@ -21801,7 +21823,7 @@
         <v>391</v>
       </c>
       <c r="K423" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>322.1</v>
@@ -21852,7 +21874,7 @@
         <v>392</v>
       </c>
       <c r="K424" t="n">
-        <v>10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L424" t="n">
         <v>322</v>
@@ -21903,7 +21925,7 @@
         <v>395</v>
       </c>
       <c r="K425" t="n">
-        <v>0</v>
+        <v>-60</v>
       </c>
       <c r="L425" t="n">
         <v>321.6</v>
@@ -21954,7 +21976,7 @@
         <v>396</v>
       </c>
       <c r="K426" t="n">
-        <v>-4.761904761904762</v>
+        <v>-40</v>
       </c>
       <c r="L426" t="n">
         <v>321.1</v>
@@ -22005,7 +22027,7 @@
         <v>396</v>
       </c>
       <c r="K427" t="n">
-        <v>-4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L427" t="n">
         <v>320.7</v>
@@ -22056,7 +22078,7 @@
         <v>397</v>
       </c>
       <c r="K428" t="n">
-        <v>4.761904761904762</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L428" t="n">
         <v>320.5</v>
@@ -22107,7 +22129,7 @@
         <v>398</v>
       </c>
       <c r="K429" t="n">
-        <v>4.761904761904762</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L429" t="n">
         <v>320.3</v>
@@ -22158,7 +22180,7 @@
         <v>399</v>
       </c>
       <c r="K430" t="n">
-        <v>-5.263157894736842</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L430" t="n">
         <v>320.1</v>
@@ -22311,7 +22333,7 @@
         <v>402</v>
       </c>
       <c r="K433" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="L433" t="n">
         <v>320.1</v>
@@ -22362,7 +22384,7 @@
         <v>402</v>
       </c>
       <c r="K434" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L434" t="n">
         <v>320.1</v>
@@ -22413,7 +22435,7 @@
         <v>402</v>
       </c>
       <c r="K435" t="n">
-        <v>-5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L435" t="n">
         <v>320.4</v>
@@ -22464,7 +22486,7 @@
         <v>402</v>
       </c>
       <c r="K436" t="n">
-        <v>-17.64705882352941</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>320.6</v>
@@ -22515,7 +22537,7 @@
         <v>402</v>
       </c>
       <c r="K437" t="n">
-        <v>-12.5</v>
+        <v>20</v>
       </c>
       <c r="L437" t="n">
         <v>320.8</v>
@@ -22566,7 +22588,7 @@
         <v>402</v>
       </c>
       <c r="K438" t="n">
-        <v>-6.666666666666667</v>
+        <v>50</v>
       </c>
       <c r="L438" t="n">
         <v>320.9</v>
@@ -22617,7 +22639,7 @@
         <v>403</v>
       </c>
       <c r="K439" t="n">
-        <v>6.666666666666667</v>
+        <v>50</v>
       </c>
       <c r="L439" t="n">
         <v>321.2</v>
@@ -22719,7 +22741,7 @@
         <v>404</v>
       </c>
       <c r="K441" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>321.3</v>
@@ -22770,7 +22792,7 @@
         <v>405</v>
       </c>
       <c r="K442" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L442" t="n">
         <v>321.1</v>
@@ -22821,7 +22843,7 @@
         <v>406</v>
       </c>
       <c r="K443" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L443" t="n">
         <v>321.1</v>
@@ -22872,7 +22894,7 @@
         <v>407</v>
       </c>
       <c r="K444" t="n">
-        <v>-6.666666666666667</v>
+        <v>-20</v>
       </c>
       <c r="L444" t="n">
         <v>321</v>
@@ -22923,7 +22945,7 @@
         <v>407</v>
       </c>
       <c r="K445" t="n">
-        <v>16.66666666666666</v>
+        <v>-20</v>
       </c>
       <c r="L445" t="n">
         <v>320.9</v>
@@ -22974,7 +22996,7 @@
         <v>409</v>
       </c>
       <c r="K446" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L446" t="n">
         <v>321</v>
@@ -23025,7 +23047,7 @@
         <v>409</v>
       </c>
       <c r="K447" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L447" t="n">
         <v>321.1</v>
@@ -23076,7 +23098,7 @@
         <v>409</v>
       </c>
       <c r="K448" t="n">
-        <v>16.66666666666666</v>
+        <v>0</v>
       </c>
       <c r="L448" t="n">
         <v>321.2</v>
@@ -23127,7 +23149,7 @@
         <v>409</v>
       </c>
       <c r="K449" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L449" t="n">
         <v>321.2</v>
@@ -23229,7 +23251,7 @@
         <v>409</v>
       </c>
       <c r="K451" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L451" t="n">
         <v>321.3</v>
@@ -23280,7 +23302,7 @@
         <v>409</v>
       </c>
       <c r="K452" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L452" t="n">
         <v>321.5</v>
@@ -23331,7 +23353,7 @@
         <v>410</v>
       </c>
       <c r="K453" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L453" t="n">
         <v>321.7</v>
@@ -23382,7 +23404,7 @@
         <v>410</v>
       </c>
       <c r="K454" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L454" t="n">
         <v>322</v>
@@ -23433,7 +23455,7 @@
         <v>411</v>
       </c>
       <c r="K455" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L455" t="n">
         <v>322.4</v>
@@ -23484,7 +23506,7 @@
         <v>411</v>
       </c>
       <c r="K456" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L456" t="n">
         <v>322.6</v>
@@ -23535,7 +23557,7 @@
         <v>412</v>
       </c>
       <c r="K457" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="L457" t="n">
         <v>322.9</v>
@@ -23586,7 +23608,7 @@
         <v>413</v>
       </c>
       <c r="K458" t="n">
-        <v>45.45454545454545</v>
+        <v>100</v>
       </c>
       <c r="L458" t="n">
         <v>323.3</v>
@@ -23637,7 +23659,7 @@
         <v>415</v>
       </c>
       <c r="K459" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L459" t="n">
         <v>323.5</v>
@@ -23688,7 +23710,7 @@
         <v>415</v>
       </c>
       <c r="K460" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L460" t="n">
         <v>323.7</v>
@@ -23739,7 +23761,7 @@
         <v>415</v>
       </c>
       <c r="K461" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L461" t="n">
         <v>323.9</v>
@@ -23790,7 +23812,7 @@
         <v>415</v>
       </c>
       <c r="K462" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L462" t="n">
         <v>324.1</v>
@@ -23841,7 +23863,7 @@
         <v>416</v>
       </c>
       <c r="K463" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>324.1</v>
@@ -23892,7 +23914,7 @@
         <v>416</v>
       </c>
       <c r="K464" t="n">
-        <v>33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L464" t="n">
         <v>324.1</v>
@@ -23943,7 +23965,7 @@
         <v>417</v>
       </c>
       <c r="K465" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L465" t="n">
         <v>324.1</v>
@@ -23994,7 +24016,7 @@
         <v>417</v>
       </c>
       <c r="K466" t="n">
-        <v>25</v>
+        <v>-20</v>
       </c>
       <c r="L466" t="n">
         <v>324.1</v>
@@ -24045,7 +24067,7 @@
         <v>418</v>
       </c>
       <c r="K467" t="n">
-        <v>11.11111111111111</v>
+        <v>-60</v>
       </c>
       <c r="L467" t="n">
         <v>323.9</v>
@@ -24096,7 +24118,7 @@
         <v>419</v>
       </c>
       <c r="K468" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L468" t="n">
         <v>323.7</v>
@@ -24147,7 +24169,7 @@
         <v>419</v>
       </c>
       <c r="K469" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>323.7</v>
@@ -24198,7 +24220,7 @@
         <v>419</v>
       </c>
       <c r="K470" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L470" t="n">
         <v>323.7</v>
@@ -24249,7 +24271,7 @@
         <v>419</v>
       </c>
       <c r="K471" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L471" t="n">
         <v>323.7</v>
@@ -24300,7 +24322,7 @@
         <v>420</v>
       </c>
       <c r="K472" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L472" t="n">
         <v>323.6</v>
@@ -24351,7 +24373,7 @@
         <v>421</v>
       </c>
       <c r="K473" t="n">
-        <v>9.090909090909092</v>
+        <v>20</v>
       </c>
       <c r="L473" t="n">
         <v>323.7</v>
@@ -24402,7 +24424,7 @@
         <v>421</v>
       </c>
       <c r="K474" t="n">
-        <v>9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L474" t="n">
         <v>323.8</v>
@@ -24504,7 +24526,7 @@
         <v>421</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L476" t="n">
         <v>323.8</v>
@@ -24555,7 +24577,7 @@
         <v>421</v>
       </c>
       <c r="K477" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L477" t="n">
         <v>323.9</v>
@@ -24606,7 +24628,7 @@
         <v>421</v>
       </c>
       <c r="K478" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L478" t="n">
         <v>323.9</v>
@@ -24759,7 +24781,7 @@
         <v>421</v>
       </c>
       <c r="K481" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L481" t="n">
         <v>323.9</v>
@@ -24810,7 +24832,7 @@
         <v>423</v>
       </c>
       <c r="K482" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L482" t="n">
         <v>324.2</v>
@@ -24861,7 +24883,7 @@
         <v>423</v>
       </c>
       <c r="K483" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L483" t="n">
         <v>324.4</v>
@@ -24912,7 +24934,7 @@
         <v>424</v>
       </c>
       <c r="K484" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L484" t="n">
         <v>324.5</v>
@@ -24963,7 +24985,7 @@
         <v>425</v>
       </c>
       <c r="K485" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="L485" t="n">
         <v>324.7</v>
@@ -25014,7 +25036,7 @@
         <v>426</v>
       </c>
       <c r="K486" t="n">
-        <v>11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L486" t="n">
         <v>324.8</v>
@@ -25065,7 +25087,7 @@
         <v>426</v>
       </c>
       <c r="K487" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L487" t="n">
         <v>324.9</v>
@@ -25116,7 +25138,7 @@
         <v>426</v>
       </c>
       <c r="K488" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L488" t="n">
         <v>325</v>
@@ -25167,7 +25189,7 @@
         <v>427</v>
       </c>
       <c r="K489" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L489" t="n">
         <v>325.2</v>
@@ -25218,7 +25240,7 @@
         <v>427</v>
       </c>
       <c r="K490" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L490" t="n">
         <v>325.4</v>
@@ -25269,7 +25291,7 @@
         <v>427</v>
       </c>
       <c r="K491" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L491" t="n">
         <v>325.6</v>
@@ -25320,7 +25342,7 @@
         <v>427</v>
       </c>
       <c r="K492" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L492" t="n">
         <v>325.6</v>
@@ -25371,7 +25393,7 @@
         <v>428</v>
       </c>
       <c r="K493" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L493" t="n">
         <v>325.7</v>
@@ -25422,7 +25444,7 @@
         <v>430</v>
       </c>
       <c r="K494" t="n">
-        <v>11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L494" t="n">
         <v>325.7</v>
@@ -25473,7 +25495,7 @@
         <v>432</v>
       </c>
       <c r="K495" t="n">
-        <v>27.27272727272727</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L495" t="n">
         <v>325.8</v>
@@ -25524,7 +25546,7 @@
         <v>433</v>
       </c>
       <c r="K496" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L496" t="n">
         <v>326.1</v>
@@ -25575,7 +25597,7 @@
         <v>434</v>
       </c>
       <c r="K497" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L497" t="n">
         <v>326.5</v>
@@ -25626,7 +25648,7 @@
         <v>434</v>
       </c>
       <c r="K498" t="n">
-        <v>38.46153846153847</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L498" t="n">
         <v>326.9</v>
@@ -25677,7 +25699,7 @@
         <v>434</v>
       </c>
       <c r="K499" t="n">
-        <v>38.46153846153847</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L499" t="n">
         <v>327.2</v>
@@ -25728,7 +25750,7 @@
         <v>435</v>
       </c>
       <c r="K500" t="n">
-        <v>28.57142857142857</v>
+        <v>25</v>
       </c>
       <c r="L500" t="n">
         <v>327.4</v>
@@ -25779,7 +25801,7 @@
         <v>437</v>
       </c>
       <c r="K501" t="n">
-        <v>37.5</v>
+        <v>40</v>
       </c>
       <c r="L501" t="n">
         <v>327.8</v>
@@ -25830,7 +25852,7 @@
         <v>439</v>
       </c>
       <c r="K502" t="n">
-        <v>12.5</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L502" t="n">
         <v>328</v>
@@ -25881,7 +25903,7 @@
         <v>439</v>
       </c>
       <c r="K503" t="n">
-        <v>12.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L503" t="n">
         <v>328.1</v>
@@ -25932,7 +25954,7 @@
         <v>439</v>
       </c>
       <c r="K504" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L504" t="n">
         <v>328.4</v>
@@ -25983,7 +26005,7 @@
         <v>440</v>
       </c>
       <c r="K505" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L505" t="n">
         <v>328.6</v>
@@ -26034,7 +26056,7 @@
         <v>441</v>
       </c>
       <c r="K506" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L506" t="n">
         <v>328.8</v>
@@ -26085,7 +26107,7 @@
         <v>442</v>
       </c>
       <c r="K507" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="L507" t="n">
         <v>329</v>
@@ -26136,7 +26158,7 @@
         <v>443</v>
       </c>
       <c r="K508" t="n">
-        <v>41.17647058823529</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L508" t="n">
         <v>329.3</v>
@@ -26187,7 +26209,7 @@
         <v>443</v>
       </c>
       <c r="K509" t="n">
-        <v>37.5</v>
+        <v>50</v>
       </c>
       <c r="L509" t="n">
         <v>329.6</v>
@@ -26238,7 +26260,7 @@
         <v>444</v>
       </c>
       <c r="K510" t="n">
-        <v>29.41176470588236</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L510" t="n">
         <v>329.9</v>
@@ -26289,7 +26311,7 @@
         <v>444</v>
       </c>
       <c r="K511" t="n">
-        <v>29.41176470588236</v>
+        <v>60</v>
       </c>
       <c r="L511" t="n">
         <v>330</v>
@@ -26340,7 +26362,7 @@
         <v>444</v>
       </c>
       <c r="K512" t="n">
-        <v>29.41176470588236</v>
+        <v>60</v>
       </c>
       <c r="L512" t="n">
         <v>330.3</v>
@@ -26391,7 +26413,7 @@
         <v>446</v>
       </c>
       <c r="K513" t="n">
-        <v>33.33333333333333</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L513" t="n">
         <v>330.8</v>
@@ -26442,7 +26464,7 @@
         <v>446</v>
       </c>
       <c r="K514" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L514" t="n">
         <v>331.3</v>
@@ -26493,7 +26515,7 @@
         <v>448</v>
       </c>
       <c r="K515" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L515" t="n">
         <v>331.5</v>
@@ -26544,7 +26566,7 @@
         <v>449</v>
       </c>
       <c r="K516" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L516" t="n">
         <v>331.5</v>
@@ -26595,7 +26617,7 @@
         <v>450</v>
       </c>
       <c r="K517" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L517" t="n">
         <v>331.3</v>
@@ -26646,7 +26668,7 @@
         <v>450</v>
       </c>
       <c r="K518" t="n">
-        <v>0</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L518" t="n">
         <v>331</v>
@@ -26697,7 +26719,7 @@
         <v>451</v>
       </c>
       <c r="K519" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L519" t="n">
         <v>330.8</v>
@@ -26748,7 +26770,7 @@
         <v>451</v>
       </c>
       <c r="K520" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L520" t="n">
         <v>330.7</v>
@@ -26799,7 +26821,7 @@
         <v>452</v>
       </c>
       <c r="K521" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L521" t="n">
         <v>330.5</v>
@@ -26850,7 +26872,7 @@
         <v>453</v>
       </c>
       <c r="K522" t="n">
-        <v>0</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L522" t="n">
         <v>330.2</v>
@@ -26901,7 +26923,7 @@
         <v>455</v>
       </c>
       <c r="K523" t="n">
-        <v>12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L523" t="n">
         <v>329.9</v>
@@ -26952,7 +26974,7 @@
         <v>456</v>
       </c>
       <c r="K524" t="n">
-        <v>5.88235294117647</v>
+        <v>-25</v>
       </c>
       <c r="L524" t="n">
         <v>329.5</v>
@@ -27003,7 +27025,7 @@
         <v>457</v>
       </c>
       <c r="K525" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L525" t="n">
         <v>329.4</v>
@@ -27054,7 +27076,7 @@
         <v>457</v>
       </c>
       <c r="K526" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L526" t="n">
         <v>329.4</v>
@@ -27105,7 +27127,7 @@
         <v>460</v>
       </c>
       <c r="K527" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L527" t="n">
         <v>329.8</v>
@@ -27156,7 +27178,7 @@
         <v>461</v>
       </c>
       <c r="K528" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L528" t="n">
         <v>330.1</v>
@@ -27207,7 +27229,7 @@
         <v>462</v>
       </c>
       <c r="K529" t="n">
-        <v>5.263157894736842</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L529" t="n">
         <v>330.4</v>
@@ -27258,7 +27280,7 @@
         <v>462</v>
       </c>
       <c r="K530" t="n">
-        <v>11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L530" t="n">
         <v>330.7</v>
@@ -27309,7 +27331,7 @@
         <v>465</v>
       </c>
       <c r="K531" t="n">
-        <v>-4.761904761904762</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L531" t="n">
         <v>330.8</v>
@@ -27360,7 +27382,7 @@
         <v>468</v>
       </c>
       <c r="K532" t="n">
-        <v>8.333333333333332</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L532" t="n">
         <v>331.3</v>
@@ -27411,7 +27433,7 @@
         <v>471</v>
       </c>
       <c r="K533" t="n">
-        <v>-12</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L533" t="n">
         <v>331.3</v>
@@ -27462,7 +27484,7 @@
         <v>473</v>
       </c>
       <c r="K534" t="n">
-        <v>-3.703703703703703</v>
+        <v>12.5</v>
       </c>
       <c r="L534" t="n">
         <v>331.6</v>
@@ -27513,7 +27535,7 @@
         <v>475</v>
       </c>
       <c r="K535" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L535" t="n">
         <v>331.6</v>
@@ -27564,7 +27586,7 @@
         <v>475</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L536" t="n">
         <v>331.6</v>
@@ -27615,7 +27637,7 @@
         <v>476</v>
       </c>
       <c r="K537" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L537" t="n">
         <v>331.2</v>
@@ -27666,7 +27688,7 @@
         <v>479</v>
       </c>
       <c r="K538" t="n">
-        <v>10.3448275862069</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L538" t="n">
         <v>331.2</v>
@@ -27717,7 +27739,7 @@
         <v>482</v>
       </c>
       <c r="K539" t="n">
-        <v>-3.225806451612903</v>
+        <v>-20</v>
       </c>
       <c r="L539" t="n">
         <v>330.8</v>
@@ -27768,7 +27790,7 @@
         <v>485</v>
       </c>
       <c r="K540" t="n">
-        <v>5.88235294117647</v>
+        <v>10</v>
       </c>
       <c r="L540" t="n">
         <v>330.7</v>
@@ -27819,7 +27841,7 @@
         <v>488</v>
       </c>
       <c r="K541" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L541" t="n">
         <v>330.6</v>
@@ -27870,7 +27892,7 @@
         <v>488</v>
       </c>
       <c r="K542" t="n">
-        <v>2.857142857142857</v>
+        <v>-5.88235294117647</v>
       </c>
       <c r="L542" t="n">
         <v>330.2</v>
@@ -27921,7 +27943,7 @@
         <v>490</v>
       </c>
       <c r="K543" t="n">
-        <v>-8.571428571428571</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L543" t="n">
         <v>329.9</v>
@@ -27972,7 +27994,7 @@
         <v>490</v>
       </c>
       <c r="K544" t="n">
-        <v>-5.88235294117647</v>
+        <v>-20</v>
       </c>
       <c r="L544" t="n">
         <v>329.4</v>
@@ -28023,7 +28045,7 @@
         <v>493</v>
       </c>
       <c r="K545" t="n">
-        <v>-16.66666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L545" t="n">
         <v>328.8</v>
@@ -28074,7 +28096,7 @@
         <v>494</v>
       </c>
       <c r="K546" t="n">
-        <v>-13.51351351351351</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L546" t="n">
         <v>328.3</v>
@@ -28125,7 +28147,7 @@
         <v>497</v>
       </c>
       <c r="K547" t="n">
-        <v>-29.72972972972973</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L547" t="n">
         <v>327.6</v>
@@ -28176,7 +28198,7 @@
         <v>498</v>
       </c>
       <c r="K548" t="n">
-        <v>-29.72972972972973</v>
+        <v>-50</v>
       </c>
       <c r="L548" t="n">
         <v>326.5</v>
@@ -28227,7 +28249,7 @@
         <v>498</v>
       </c>
       <c r="K549" t="n">
-        <v>-33.33333333333333</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L549" t="n">
         <v>325.7</v>
@@ -28278,7 +28300,7 @@
         <v>499</v>
       </c>
       <c r="K550" t="n">
-        <v>-29.72972972972973</v>
+        <v>-63.63636363636363</v>
       </c>
       <c r="L550" t="n">
         <v>324.7</v>
@@ -28329,7 +28351,7 @@
         <v>502</v>
       </c>
       <c r="K551" t="n">
-        <v>-29.72972972972973</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L551" t="n">
         <v>323.7</v>
@@ -28380,7 +28402,7 @@
         <v>506</v>
       </c>
       <c r="K552" t="n">
-        <v>-26.31578947368421</v>
+        <v>-25</v>
       </c>
       <c r="L552" t="n">
         <v>323.1</v>
@@ -28431,7 +28453,7 @@
         <v>506</v>
       </c>
       <c r="K553" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L553" t="n">
         <v>322.7</v>
@@ -28482,7 +28504,7 @@
         <v>506</v>
       </c>
       <c r="K554" t="n">
-        <v>-27.27272727272727</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L554" t="n">
         <v>322.3</v>
@@ -28533,7 +28555,7 @@
         <v>508</v>
       </c>
       <c r="K555" t="n">
-        <v>-27.27272727272727</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L555" t="n">
         <v>322</v>
@@ -28584,7 +28606,7 @@
         <v>508</v>
       </c>
       <c r="K556" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L556" t="n">
         <v>321.6</v>
@@ -28635,7 +28657,7 @@
         <v>512</v>
       </c>
       <c r="K557" t="n">
-        <v>-33.33333333333333</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L557" t="n">
         <v>321.1</v>
@@ -28686,7 +28708,7 @@
         <v>513</v>
       </c>
       <c r="K558" t="n">
-        <v>-41.17647058823529</v>
+        <v>-20</v>
       </c>
       <c r="L558" t="n">
         <v>320.8</v>
@@ -28737,7 +28759,7 @@
         <v>514</v>
       </c>
       <c r="K559" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L559" t="n">
         <v>320.4</v>
@@ -28788,7 +28810,7 @@
         <v>516</v>
       </c>
       <c r="K560" t="n">
-        <v>-41.93548387096774</v>
+        <v>0</v>
       </c>
       <c r="L560" t="n">
         <v>320.1</v>
@@ -28839,7 +28861,7 @@
         <v>517</v>
       </c>
       <c r="K561" t="n">
-        <v>-37.93103448275862</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L561" t="n">
         <v>320</v>
@@ -28890,7 +28912,7 @@
         <v>517</v>
       </c>
       <c r="K562" t="n">
-        <v>-37.93103448275862</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L562" t="n">
         <v>319.5</v>
@@ -28941,7 +28963,7 @@
         <v>520</v>
       </c>
       <c r="K563" t="n">
-        <v>-40</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L563" t="n">
         <v>318.7</v>
@@ -28992,7 +29014,7 @@
         <v>522</v>
       </c>
       <c r="K564" t="n">
-        <v>-43.75</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L564" t="n">
         <v>317.7</v>
@@ -29043,7 +29065,7 @@
         <v>523</v>
       </c>
       <c r="K565" t="n">
-        <v>-33.33333333333333</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L565" t="n">
         <v>317</v>
@@ -29094,7 +29116,7 @@
         <v>524</v>
       </c>
       <c r="K566" t="n">
-        <v>-40</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L566" t="n">
         <v>316.2</v>
@@ -29145,7 +29167,7 @@
         <v>525</v>
       </c>
       <c r="K567" t="n">
-        <v>-35.71428571428572</v>
+        <v>-50</v>
       </c>
       <c r="L567" t="n">
         <v>315.7</v>
@@ -29196,7 +29218,7 @@
         <v>528</v>
       </c>
       <c r="K568" t="n">
-        <v>-20</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L568" t="n">
         <v>315.4</v>
@@ -29247,7 +29269,7 @@
         <v>529</v>
       </c>
       <c r="K569" t="n">
-        <v>-22.58064516129032</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L569" t="n">
         <v>315.1</v>
@@ -29298,7 +29320,7 @@
         <v>530</v>
       </c>
       <c r="K570" t="n">
-        <v>-22.58064516129032</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L570" t="n">
         <v>314.7</v>
@@ -29349,7 +29371,7 @@
         <v>530</v>
       </c>
       <c r="K571" t="n">
-        <v>-14.28571428571428</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L571" t="n">
         <v>314.4</v>
@@ -29400,7 +29422,7 @@
         <v>531</v>
       </c>
       <c r="K572" t="n">
-        <v>-36</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L572" t="n">
         <v>314</v>
@@ -29451,7 +29473,7 @@
         <v>531</v>
       </c>
       <c r="K573" t="n">
-        <v>-36</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L573" t="n">
         <v>313.9</v>
@@ -29502,7 +29524,7 @@
         <v>532</v>
       </c>
       <c r="K574" t="n">
-        <v>-38.46153846153847</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L574" t="n">
         <v>313.9</v>
@@ -29553,7 +29575,7 @@
         <v>535</v>
       </c>
       <c r="K575" t="n">
-        <v>-40.74074074074074</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L575" t="n">
         <v>313.5</v>
@@ -29604,7 +29626,7 @@
         <v>537</v>
       </c>
       <c r="K576" t="n">
-        <v>-31.03448275862069</v>
+        <v>0</v>
       </c>
       <c r="L576" t="n">
         <v>313.4</v>
@@ -29655,7 +29677,7 @@
         <v>538</v>
       </c>
       <c r="K577" t="n">
-        <v>-23.07692307692308</v>
+        <v>-40</v>
       </c>
       <c r="L577" t="n">
         <v>313.3</v>
@@ -29706,7 +29728,7 @@
         <v>542</v>
       </c>
       <c r="K578" t="n">
-        <v>-10.3448275862069</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L578" t="n">
         <v>313.3</v>
@@ -29757,7 +29779,7 @@
         <v>544</v>
       </c>
       <c r="K579" t="n">
-        <v>-13.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L579" t="n">
         <v>313.2</v>
@@ -29808,7 +29830,7 @@
         <v>545</v>
       </c>
       <c r="K580" t="n">
-        <v>-24.13793103448276</v>
+        <v>-20</v>
       </c>
       <c r="L580" t="n">
         <v>312.9</v>
@@ -29859,7 +29881,7 @@
         <v>545</v>
       </c>
       <c r="K581" t="n">
-        <v>-21.42857142857143</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L581" t="n">
         <v>312.6</v>
@@ -29910,7 +29932,7 @@
         <v>546</v>
       </c>
       <c r="K582" t="n">
-        <v>-24.13793103448276</v>
+        <v>-20</v>
       </c>
       <c r="L582" t="n">
         <v>312.3</v>
@@ -29961,7 +29983,7 @@
         <v>547</v>
       </c>
       <c r="K583" t="n">
-        <v>-11.11111111111111</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L583" t="n">
         <v>312.1</v>
@@ -30012,7 +30034,7 @@
         <v>549</v>
       </c>
       <c r="K584" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L584" t="n">
         <v>311.8</v>
@@ -30063,7 +30085,7 @@
         <v>550</v>
       </c>
       <c r="K585" t="n">
-        <v>-11.11111111111111</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L585" t="n">
         <v>311.9</v>
@@ -30114,7 +30136,7 @@
         <v>550</v>
       </c>
       <c r="K586" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L586" t="n">
         <v>311.8</v>
@@ -30165,7 +30187,7 @@
         <v>553</v>
       </c>
       <c r="K587" t="n">
-        <v>7.142857142857142</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L587" t="n">
         <v>312.1</v>
@@ -30216,7 +30238,7 @@
         <v>554</v>
       </c>
       <c r="K588" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L588" t="n">
         <v>311.9</v>
@@ -30267,7 +30289,7 @@
         <v>554</v>
       </c>
       <c r="K589" t="n">
-        <v>-4</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L589" t="n">
         <v>311.9</v>
@@ -30318,7 +30340,7 @@
         <v>555</v>
       </c>
       <c r="K590" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L590" t="n">
         <v>311.9</v>
@@ -30369,7 +30391,7 @@
         <v>557</v>
       </c>
       <c r="K591" t="n">
-        <v>-3.703703703703703</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L591" t="n">
         <v>312.1</v>
@@ -30420,7 +30442,7 @@
         <v>557</v>
       </c>
       <c r="K592" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L592" t="n">
         <v>312.4</v>
@@ -30471,7 +30493,7 @@
         <v>558</v>
       </c>
       <c r="K593" t="n">
-        <v>3.703703703703703</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L593" t="n">
         <v>312.7</v>
@@ -30522,7 +30544,7 @@
         <v>560</v>
       </c>
       <c r="K594" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L594" t="n">
         <v>313</v>
@@ -30573,7 +30595,7 @@
         <v>561</v>
       </c>
       <c r="K595" t="n">
-        <v>15.38461538461539</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L595" t="n">
         <v>313.3</v>
@@ -30624,7 +30646,7 @@
         <v>561</v>
       </c>
       <c r="K596" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L596" t="n">
         <v>313.6</v>
@@ -30675,7 +30697,7 @@
         <v>562</v>
       </c>
       <c r="K597" t="n">
-        <v>8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L597" t="n">
         <v>313.5</v>
@@ -30726,7 +30748,7 @@
         <v>564</v>
       </c>
       <c r="K598" t="n">
-        <v>-18.18181818181818</v>
+        <v>-20</v>
       </c>
       <c r="L598" t="n">
         <v>313.3</v>
@@ -30777,7 +30799,7 @@
         <v>564</v>
       </c>
       <c r="K599" t="n">
-        <v>-10</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L599" t="n">
         <v>313.1</v>
@@ -30828,7 +30850,7 @@
         <v>564</v>
       </c>
       <c r="K600" t="n">
-        <v>-5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L600" t="n">
         <v>313</v>
@@ -30879,7 +30901,7 @@
         <v>564</v>
       </c>
       <c r="K601" t="n">
-        <v>-5.263157894736842</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L601" t="n">
         <v>312.7</v>
@@ -30930,7 +30952,7 @@
         <v>566</v>
       </c>
       <c r="K602" t="n">
-        <v>10</v>
+        <v>-25</v>
       </c>
       <c r="L602" t="n">
         <v>312.6</v>
@@ -30981,7 +31003,7 @@
         <v>568</v>
       </c>
       <c r="K603" t="n">
-        <v>-4.761904761904762</v>
+        <v>-25</v>
       </c>
       <c r="L603" t="n">
         <v>312.2</v>
@@ -31032,7 +31054,7 @@
         <v>569</v>
       </c>
       <c r="K604" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L604" t="n">
         <v>311.9</v>
@@ -31083,7 +31105,7 @@
         <v>570</v>
       </c>
       <c r="K605" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L605" t="n">
         <v>311.6</v>
@@ -31134,7 +31156,7 @@
         <v>570</v>
       </c>
       <c r="K606" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="L606" t="n">
         <v>311.3</v>
@@ -31185,7 +31207,7 @@
         <v>571</v>
       </c>
       <c r="K607" t="n">
-        <v>-22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L607" t="n">
         <v>311</v>
@@ -31236,7 +31258,7 @@
         <v>573</v>
       </c>
       <c r="K608" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L608" t="n">
         <v>311.1</v>
@@ -31287,7 +31309,7 @@
         <v>573</v>
       </c>
       <c r="K609" t="n">
-        <v>-5.263157894736842</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L609" t="n">
         <v>311.2</v>
@@ -31338,7 +31360,7 @@
         <v>574</v>
       </c>
       <c r="K610" t="n">
-        <v>5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L610" t="n">
         <v>311.4</v>
@@ -31389,7 +31411,7 @@
         <v>576</v>
       </c>
       <c r="K611" t="n">
-        <v>-15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L611" t="n">
         <v>311.4</v>
@@ -31440,7 +31462,7 @@
         <v>578</v>
       </c>
       <c r="K612" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L612" t="n">
         <v>311</v>
@@ -31491,7 +31513,7 @@
         <v>578</v>
       </c>
       <c r="K613" t="n">
-        <v>-30</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L613" t="n">
         <v>310.8</v>
@@ -31542,7 +31564,7 @@
         <v>579</v>
       </c>
       <c r="K614" t="n">
-        <v>-26.31578947368421</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L614" t="n">
         <v>310.6</v>
@@ -31593,7 +31615,7 @@
         <v>580</v>
       </c>
       <c r="K615" t="n">
-        <v>-36.84210526315789</v>
+        <v>-40</v>
       </c>
       <c r="L615" t="n">
         <v>310.2</v>
@@ -31644,7 +31666,7 @@
         <v>580</v>
       </c>
       <c r="K616" t="n">
-        <v>-36.84210526315789</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L616" t="n">
         <v>309.8</v>
@@ -31695,7 +31717,7 @@
         <v>582</v>
       </c>
       <c r="K617" t="n">
-        <v>-40</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L617" t="n">
         <v>309.3</v>
@@ -31746,7 +31768,7 @@
         <v>583</v>
       </c>
       <c r="K618" t="n">
-        <v>-26.31578947368421</v>
+        <v>-60</v>
       </c>
       <c r="L618" t="n">
         <v>308.7</v>
@@ -31797,7 +31819,7 @@
         <v>584</v>
       </c>
       <c r="K619" t="n">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="L619" t="n">
         <v>308</v>
@@ -31848,7 +31870,7 @@
         <v>584</v>
       </c>
       <c r="K620" t="n">
-        <v>-30</v>
+        <v>-75</v>
       </c>
       <c r="L620" t="n">
         <v>307.2</v>
@@ -31899,7 +31921,7 @@
         <v>585</v>
       </c>
       <c r="K621" t="n">
-        <v>-23.80952380952381</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L621" t="n">
         <v>306.7</v>
@@ -31950,7 +31972,7 @@
         <v>586</v>
       </c>
       <c r="K622" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L622" t="n">
         <v>306.3</v>
@@ -32001,7 +32023,7 @@
         <v>586</v>
       </c>
       <c r="K623" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L623" t="n">
         <v>305.9</v>
@@ -32052,7 +32074,7 @@
         <v>586</v>
       </c>
       <c r="K624" t="n">
-        <v>-29.41176470588236</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L624" t="n">
         <v>305.6</v>
@@ -32103,7 +32125,7 @@
         <v>586</v>
       </c>
       <c r="K625" t="n">
-        <v>-37.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L625" t="n">
         <v>305.4</v>
@@ -32154,7 +32176,7 @@
         <v>586</v>
       </c>
       <c r="K626" t="n">
-        <v>-37.5</v>
+        <v>0</v>
       </c>
       <c r="L626" t="n">
         <v>305.2</v>
@@ -32205,7 +32227,7 @@
         <v>587</v>
       </c>
       <c r="K627" t="n">
-        <v>-37.5</v>
+        <v>-50</v>
       </c>
       <c r="L627" t="n">
         <v>305.1</v>
@@ -32256,7 +32278,7 @@
         <v>589</v>
       </c>
       <c r="K628" t="n">
-        <v>-37.5</v>
+        <v>20</v>
       </c>
       <c r="L628" t="n">
         <v>305.1</v>
@@ -32307,7 +32329,7 @@
         <v>591</v>
       </c>
       <c r="K629" t="n">
-        <v>-44.44444444444444</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L629" t="n">
         <v>305</v>
@@ -32358,7 +32380,7 @@
         <v>593</v>
       </c>
       <c r="K630" t="n">
-        <v>-36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L630" t="n">
         <v>305.1</v>
@@ -32409,7 +32431,7 @@
         <v>594</v>
       </c>
       <c r="K631" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L631" t="n">
         <v>305</v>
@@ -32460,7 +32482,7 @@
         <v>595</v>
       </c>
       <c r="K632" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L632" t="n">
         <v>305.1</v>
@@ -32511,7 +32533,7 @@
         <v>595</v>
       </c>
       <c r="K633" t="n">
-        <v>-17.64705882352941</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L633" t="n">
         <v>305.2</v>
@@ -32562,7 +32584,7 @@
         <v>596</v>
       </c>
       <c r="K634" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L634" t="n">
         <v>305.2</v>
@@ -32613,7 +32635,7 @@
         <v>596</v>
       </c>
       <c r="K635" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L635" t="n">
         <v>305.2</v>
@@ -32664,7 +32686,7 @@
         <v>598</v>
       </c>
       <c r="K636" t="n">
-        <v>-22.22222222222222</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L636" t="n">
         <v>305</v>
@@ -32715,7 +32737,7 @@
         <v>598</v>
       </c>
       <c r="K637" t="n">
-        <v>-12.5</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L637" t="n">
         <v>304.9</v>
@@ -32817,7 +32839,7 @@
         <v>601</v>
       </c>
       <c r="K639" t="n">
-        <v>-29.41176470588236</v>
+        <v>-75</v>
       </c>
       <c r="L639" t="n">
         <v>304.1</v>
@@ -32868,7 +32890,7 @@
         <v>601</v>
       </c>
       <c r="K640" t="n">
-        <v>-29.41176470588236</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L640" t="n">
         <v>303.5</v>
@@ -32919,7 +32941,7 @@
         <v>602</v>
       </c>
       <c r="K641" t="n">
-        <v>-41.17647058823529</v>
+        <v>-100</v>
       </c>
       <c r="L641" t="n">
         <v>302.9</v>
@@ -32970,7 +32992,7 @@
         <v>602</v>
       </c>
       <c r="K642" t="n">
-        <v>-37.5</v>
+        <v>-100</v>
       </c>
       <c r="L642" t="n">
         <v>302.2</v>
@@ -33021,7 +33043,7 @@
         <v>603</v>
       </c>
       <c r="K643" t="n">
-        <v>-29.41176470588236</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L643" t="n">
         <v>301.6</v>
@@ -33072,7 +33094,7 @@
         <v>603</v>
       </c>
       <c r="K644" t="n">
-        <v>-29.41176470588236</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L644" t="n">
         <v>301.1</v>
@@ -33123,7 +33145,7 @@
         <v>603</v>
       </c>
       <c r="K645" t="n">
-        <v>-29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L645" t="n">
         <v>300.6</v>
@@ -33174,7 +33196,7 @@
         <v>603</v>
       </c>
       <c r="K646" t="n">
-        <v>-29.41176470588236</v>
+        <v>-60</v>
       </c>
       <c r="L646" t="n">
         <v>300.3</v>
@@ -33225,7 +33247,7 @@
         <v>604</v>
       </c>
       <c r="K647" t="n">
-        <v>-17.64705882352941</v>
+        <v>-20</v>
       </c>
       <c r="L647" t="n">
         <v>300.1</v>
@@ -33276,7 +33298,7 @@
         <v>604</v>
       </c>
       <c r="K648" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L648" t="n">
         <v>300</v>
@@ -33327,7 +33349,7 @@
         <v>605</v>
       </c>
       <c r="K649" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L649" t="n">
         <v>300.2</v>
@@ -33378,7 +33400,7 @@
         <v>606</v>
       </c>
       <c r="K650" t="n">
-        <v>-23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L650" t="n">
         <v>300.5</v>
@@ -33429,7 +33451,7 @@
         <v>606</v>
       </c>
       <c r="K651" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L651" t="n">
         <v>300.9</v>
@@ -33480,7 +33502,7 @@
         <v>607</v>
       </c>
       <c r="K652" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L652" t="n">
         <v>301.4</v>
@@ -33531,7 +33553,7 @@
         <v>607</v>
       </c>
       <c r="K653" t="n">
-        <v>-16.66666666666666</v>
+        <v>100</v>
       </c>
       <c r="L653" t="n">
         <v>301.8</v>
@@ -33582,7 +33604,7 @@
         <v>608</v>
       </c>
       <c r="K654" t="n">
-        <v>-16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L654" t="n">
         <v>302.1</v>
@@ -33633,7 +33655,7 @@
         <v>610</v>
       </c>
       <c r="K655" t="n">
-        <v>0</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L655" t="n">
         <v>302.6</v>
@@ -33684,7 +33706,7 @@
         <v>611</v>
       </c>
       <c r="K656" t="n">
-        <v>23.07692307692308</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L656" t="n">
         <v>303.2</v>
@@ -33735,7 +33757,7 @@
         <v>614</v>
       </c>
       <c r="K657" t="n">
-        <v>37.5</v>
+        <v>80</v>
       </c>
       <c r="L657" t="n">
         <v>304</v>
@@ -33786,7 +33808,7 @@
         <v>619</v>
       </c>
       <c r="K658" t="n">
-        <v>10</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L658" t="n">
         <v>304.3</v>
@@ -33837,7 +33859,7 @@
         <v>619</v>
       </c>
       <c r="K659" t="n">
-        <v>22.22222222222222</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L659" t="n">
         <v>304.5</v>
@@ -33888,7 +33910,7 @@
         <v>621</v>
       </c>
       <c r="K660" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L660" t="n">
         <v>304.8</v>
@@ -33939,7 +33961,7 @@
         <v>621</v>
       </c>
       <c r="K661" t="n">
-        <v>36.84210526315789</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L661" t="n">
         <v>305.1</v>
@@ -33990,7 +34012,7 @@
         <v>622</v>
       </c>
       <c r="K662" t="n">
-        <v>30</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L662" t="n">
         <v>305.2</v>
@@ -34041,7 +34063,7 @@
         <v>623</v>
       </c>
       <c r="K663" t="n">
-        <v>20</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L663" t="n">
         <v>305.2</v>
@@ -34092,7 +34114,7 @@
         <v>624</v>
       </c>
       <c r="K664" t="n">
-        <v>23.80952380952381</v>
+        <v>0</v>
       </c>
       <c r="L664" t="n">
         <v>305.4</v>
@@ -34143,7 +34165,7 @@
         <v>624</v>
       </c>
       <c r="K665" t="n">
-        <v>23.80952380952381</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L665" t="n">
         <v>305.4</v>
@@ -34194,7 +34216,7 @@
         <v>624</v>
       </c>
       <c r="K666" t="n">
-        <v>23.80952380952381</v>
+        <v>-40</v>
       </c>
       <c r="L666" t="n">
         <v>305.3</v>
@@ -34296,7 +34318,7 @@
         <v>627</v>
       </c>
       <c r="K668" t="n">
-        <v>4.347826086956522</v>
+        <v>-25</v>
       </c>
       <c r="L668" t="n">
         <v>304.7</v>
@@ -34347,7 +34369,7 @@
         <v>630</v>
       </c>
       <c r="K669" t="n">
-        <v>12</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L669" t="n">
         <v>304.8</v>
@@ -34398,7 +34420,7 @@
         <v>633</v>
       </c>
       <c r="K670" t="n">
-        <v>-3.703703703703703</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L670" t="n">
         <v>304.4</v>
@@ -34449,7 +34471,7 @@
         <v>635</v>
       </c>
       <c r="K671" t="n">
-        <v>3.448275862068965</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L671" t="n">
         <v>304.2</v>
@@ -34500,7 +34522,7 @@
         <v>636</v>
       </c>
       <c r="K672" t="n">
-        <v>3.448275862068965</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L672" t="n">
         <v>304.2</v>
@@ -34551,7 +34573,7 @@
         <v>637</v>
       </c>
       <c r="K673" t="n">
-        <v>0</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L673" t="n">
         <v>304.2</v>
@@ -34602,7 +34624,7 @@
         <v>638</v>
       </c>
       <c r="K674" t="n">
-        <v>6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L674" t="n">
         <v>304.2</v>
@@ -34704,7 +34726,7 @@
         <v>638</v>
       </c>
       <c r="K676" t="n">
-        <v>-3.703703703703703</v>
+        <v>0</v>
       </c>
       <c r="L676" t="n">
         <v>304.2</v>
@@ -34755,7 +34777,7 @@
         <v>639</v>
       </c>
       <c r="K677" t="n">
-        <v>-20</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L677" t="n">
         <v>304.1</v>
@@ -34806,7 +34828,7 @@
         <v>642</v>
       </c>
       <c r="K678" t="n">
-        <v>13.04347826086956</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L678" t="n">
         <v>304.6</v>
@@ -34857,7 +34879,7 @@
         <v>643</v>
       </c>
       <c r="K679" t="n">
-        <v>16.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L679" t="n">
         <v>304.9</v>
@@ -34908,7 +34930,7 @@
         <v>644</v>
       </c>
       <c r="K680" t="n">
-        <v>13.04347826086956</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L680" t="n">
         <v>305.6</v>
@@ -34959,7 +34981,7 @@
         <v>645</v>
       </c>
       <c r="K681" t="n">
-        <v>8.333333333333332</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L681" t="n">
         <v>306</v>
@@ -35010,7 +35032,7 @@
         <v>645</v>
       </c>
       <c r="K682" t="n">
-        <v>13.04347826086956</v>
+        <v>50</v>
       </c>
       <c r="L682" t="n">
         <v>306.3</v>
@@ -35061,7 +35083,7 @@
         <v>645</v>
       </c>
       <c r="K683" t="n">
-        <v>18.18181818181818</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L683" t="n">
         <v>306.7</v>
@@ -35112,7 +35134,7 @@
         <v>645</v>
       </c>
       <c r="K684" t="n">
-        <v>14.28571428571428</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L684" t="n">
         <v>307</v>
@@ -35163,7 +35185,7 @@
         <v>646</v>
       </c>
       <c r="K685" t="n">
-        <v>18.18181818181818</v>
+        <v>50</v>
       </c>
       <c r="L685" t="n">
         <v>307.4</v>
@@ -35214,7 +35236,7 @@
         <v>647</v>
       </c>
       <c r="K686" t="n">
-        <v>21.73913043478261</v>
+        <v>75</v>
       </c>
       <c r="L686" t="n">
         <v>307.9</v>
@@ -35265,7 +35287,7 @@
         <v>650</v>
       </c>
       <c r="K687" t="n">
-        <v>30.76923076923077</v>
+        <v>75</v>
       </c>
       <c r="L687" t="n">
         <v>308.8</v>
@@ -35316,7 +35338,7 @@
         <v>655</v>
       </c>
       <c r="K688" t="n">
-        <v>57.14285714285714</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L688" t="n">
         <v>309.9</v>
@@ -35367,7 +35389,7 @@
         <v>661</v>
       </c>
       <c r="K689" t="n">
-        <v>22.58064516129032</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L689" t="n">
         <v>310.3</v>
@@ -35418,7 +35440,7 @@
         <v>662</v>
       </c>
       <c r="K690" t="n">
-        <v>37.93103448275862</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L690" t="n">
         <v>310.7</v>
@@ -35469,7 +35491,7 @@
         <v>662</v>
       </c>
       <c r="K691" t="n">
-        <v>33.33333333333333</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L691" t="n">
         <v>311.2</v>
@@ -35571,7 +35593,7 @@
         <v>665</v>
       </c>
       <c r="K693" t="n">
-        <v>42.85714285714285</v>
+        <v>40</v>
       </c>
       <c r="L693" t="n">
         <v>312.6</v>
@@ -35622,7 +35644,7 @@
         <v>665</v>
       </c>
       <c r="K694" t="n">
-        <v>40.74074074074074</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L694" t="n">
         <v>313.4</v>
@@ -35673,7 +35695,7 @@
         <v>666</v>
       </c>
       <c r="K695" t="n">
-        <v>35.71428571428572</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L695" t="n">
         <v>314</v>
@@ -35724,7 +35746,7 @@
         <v>668</v>
       </c>
       <c r="K696" t="n">
-        <v>40</v>
+        <v>22.22222222222222</v>
       </c>
       <c r="L696" t="n">
         <v>314.7</v>
@@ -35775,7 +35797,7 @@
         <v>670</v>
       </c>
       <c r="K697" t="n">
-        <v>48.38709677419355</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L697" t="n">
         <v>315.3</v>
@@ -35826,7 +35848,7 @@
         <v>671</v>
       </c>
       <c r="K698" t="n">
-        <v>37.93103448275862</v>
+        <v>60</v>
       </c>
       <c r="L698" t="n">
         <v>315.3</v>
@@ -35877,7 +35899,7 @@
         <v>672</v>
       </c>
       <c r="K699" t="n">
-        <v>37.93103448275862</v>
+        <v>60</v>
       </c>
       <c r="L699" t="n">
         <v>316</v>
@@ -35928,7 +35950,7 @@
         <v>673</v>
       </c>
       <c r="K700" t="n">
-        <v>37.93103448275862</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L700" t="n">
         <v>316.7</v>
@@ -36030,7 +36052,7 @@
         <v>676</v>
       </c>
       <c r="K702" t="n">
-        <v>35.48387096774194</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L702" t="n">
         <v>317.7</v>

--- a/BackTest/2019-10-09 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-09 BackTest ZRX.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>19065.55019065744</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>28475.29819065744</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>294</v>
@@ -521,7 +521,7 @@
         <v>29105.19379065744</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>296</v>
@@ -562,7 +562,7 @@
         <v>28606.19379065744</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>297</v>
@@ -603,7 +603,7 @@
         <v>35173.51089065744</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>296</v>
@@ -644,7 +644,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>297</v>
@@ -685,7 +685,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>298</v>
@@ -726,7 +726,7 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>298</v>
@@ -767,7 +767,7 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>298</v>
@@ -808,7 +808,7 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>299</v>
@@ -849,7 +849,7 @@
         <v>37486.08063830844</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>299</v>
@@ -890,9 +890,11 @@
         <v>37511.08063830844</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>298</v>
+      </c>
       <c r="J13" t="n">
         <v>294</v>
       </c>
@@ -929,9 +931,11 @@
         <v>36779.33103830844</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>299</v>
+      </c>
       <c r="J14" t="n">
         <v>294</v>
       </c>
@@ -968,9 +972,11 @@
         <v>36779.33103830844</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>298</v>
+      </c>
       <c r="J15" t="n">
         <v>294</v>
       </c>
@@ -1007,9 +1013,11 @@
         <v>38450.52023830844</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>298</v>
+      </c>
       <c r="J16" t="n">
         <v>294</v>
       </c>
@@ -1046,9 +1054,11 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>299</v>
+      </c>
       <c r="J17" t="n">
         <v>294</v>
       </c>
@@ -1085,9 +1095,11 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>300</v>
+      </c>
       <c r="J18" t="n">
         <v>294</v>
       </c>
@@ -1124,9 +1136,11 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>300</v>
+      </c>
       <c r="J19" t="n">
         <v>294</v>
       </c>
@@ -1163,7 +1177,7 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>300</v>
@@ -1204,9 +1218,11 @@
         <v>45229.11677164178</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>300</v>
+      </c>
       <c r="J21" t="n">
         <v>294</v>
       </c>
@@ -1243,9 +1259,11 @@
         <v>44788.70797164178</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>299</v>
+      </c>
       <c r="J22" t="n">
         <v>294</v>
       </c>
@@ -1282,9 +1300,11 @@
         <v>44684.16667164178</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>298</v>
+      </c>
       <c r="J23" t="n">
         <v>294</v>
       </c>
@@ -1321,9 +1341,11 @@
         <v>49698.96217164178</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>296</v>
+      </c>
       <c r="J24" t="n">
         <v>294</v>
       </c>
@@ -1360,7 +1382,7 @@
         <v>46244.39767164178</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>297</v>
@@ -1401,7 +1423,7 @@
         <v>45138.62777164178</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>295</v>
@@ -1442,7 +1464,7 @@
         <v>44401.80857164178</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>294</v>
@@ -1483,7 +1505,7 @@
         <v>44405.88017164179</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>292</v>
@@ -1524,7 +1546,7 @@
         <v>43701.66987164179</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>293</v>
@@ -1565,9 +1587,11 @@
         <v>43949.71817164179</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>292</v>
+      </c>
       <c r="J30" t="n">
         <v>294</v>
       </c>
@@ -1604,9 +1628,11 @@
         <v>43950.71817164179</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>293</v>
+      </c>
       <c r="J31" t="n">
         <v>294</v>
       </c>
@@ -1643,9 +1669,11 @@
         <v>43383.67807164179</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
+        <v>295</v>
+      </c>
       <c r="J32" t="n">
         <v>294</v>
       </c>
@@ -1682,9 +1710,11 @@
         <v>43388.42487164179</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>292</v>
+      </c>
       <c r="J33" t="n">
         <v>294</v>
       </c>
@@ -1721,9 +1751,11 @@
         <v>43729.42487164179</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>294</v>
+      </c>
       <c r="J34" t="n">
         <v>294</v>
       </c>
@@ -1760,9 +1792,11 @@
         <v>43729.42487164179</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>298</v>
+      </c>
       <c r="J35" t="n">
         <v>294</v>
       </c>
@@ -1799,9 +1833,11 @@
         <v>43634.90337164179</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>298</v>
+      </c>
       <c r="J36" t="n">
         <v>294</v>
       </c>
@@ -1838,9 +1874,11 @@
         <v>43634.90337164179</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>296</v>
+      </c>
       <c r="J37" t="n">
         <v>294</v>
       </c>
@@ -1877,9 +1915,11 @@
         <v>43634.90337164179</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>296</v>
+      </c>
       <c r="J38" t="n">
         <v>294</v>
       </c>
@@ -1916,9 +1956,11 @@
         <v>43489.94327164179</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>296</v>
+      </c>
       <c r="J39" t="n">
         <v>294</v>
       </c>
@@ -1955,9 +1997,11 @@
         <v>43489.94327164179</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>295</v>
+      </c>
       <c r="J40" t="n">
         <v>294</v>
       </c>
@@ -1994,9 +2038,11 @@
         <v>44071.91962299315</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>295</v>
+      </c>
       <c r="J41" t="n">
         <v>294</v>
       </c>
@@ -2033,9 +2079,11 @@
         <v>43616.17052299315</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>296</v>
+      </c>
       <c r="J42" t="n">
         <v>294</v>
       </c>
@@ -2072,9 +2120,11 @@
         <v>43616.17052299315</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>295</v>
+      </c>
       <c r="J43" t="n">
         <v>294</v>
       </c>
@@ -2111,9 +2161,11 @@
         <v>41136.17052299315</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>295</v>
+      </c>
       <c r="J44" t="n">
         <v>294</v>
       </c>
@@ -2150,9 +2202,11 @@
         <v>41599.89782299315</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>293</v>
+      </c>
       <c r="J45" t="n">
         <v>294</v>
       </c>
@@ -2189,9 +2243,11 @@
         <v>41599.89782299315</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>294</v>
+      </c>
       <c r="J46" t="n">
         <v>294</v>
       </c>
@@ -2228,9 +2284,11 @@
         <v>41599.89782299315</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>294</v>
+      </c>
       <c r="J47" t="n">
         <v>294</v>
       </c>
@@ -2267,9 +2325,11 @@
         <v>41680.64402299315</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>294</v>
+      </c>
       <c r="J48" t="n">
         <v>294</v>
       </c>
@@ -2306,9 +2366,11 @@
         <v>25356.44752299315</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>295</v>
+      </c>
       <c r="J49" t="n">
         <v>294</v>
       </c>
@@ -2345,9 +2407,11 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>294</v>
+      </c>
       <c r="J50" t="n">
         <v>294</v>
       </c>
@@ -2384,9 +2448,11 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>293</v>
+      </c>
       <c r="J51" t="n">
         <v>294</v>
       </c>
@@ -2423,9 +2489,11 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>293</v>
+      </c>
       <c r="J52" t="n">
         <v>294</v>
       </c>
@@ -2462,9 +2530,11 @@
         <v>23994.76402299315</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>293</v>
+      </c>
       <c r="J53" t="n">
         <v>294</v>
       </c>
@@ -2540,7 +2610,7 @@
         <v>21442.12082299315</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>293</v>
@@ -2581,9 +2651,11 @@
         <v>21442.12082299315</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>291</v>
+      </c>
       <c r="J56" t="n">
         <v>294</v>
       </c>
@@ -2620,7 +2692,7 @@
         <v>21442.12082299315</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
         <v>291</v>
@@ -2661,9 +2733,11 @@
         <v>22048.89612299315</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>291</v>
+      </c>
       <c r="J58" t="n">
         <v>294</v>
       </c>
@@ -2700,9 +2774,11 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>292</v>
+      </c>
       <c r="J59" t="n">
         <v>294</v>
       </c>
@@ -2739,7 +2815,7 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>293</v>
@@ -2780,9 +2856,11 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>293</v>
+      </c>
       <c r="J61" t="n">
         <v>294</v>
       </c>
@@ -2819,9 +2897,11 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>293</v>
+      </c>
       <c r="J62" t="n">
         <v>294</v>
       </c>
@@ -4613,9 +4693,11 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>300</v>
+      </c>
       <c r="J108" t="n">
         <v>294</v>
       </c>
@@ -4652,9 +4734,11 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>300</v>
+      </c>
       <c r="J109" t="n">
         <v>294</v>
       </c>
@@ -4691,9 +4775,11 @@
         <v>45393.30088051825</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>300</v>
+      </c>
       <c r="J110" t="n">
         <v>294</v>
       </c>
@@ -11516,7 +11602,7 @@
         <v>197708.5556640409</v>
       </c>
       <c r="H285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
@@ -11524,15 +11610,13 @@
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>1.093639455782313</v>
-      </c>
-      <c r="M285" t="n">
-        <v>1.010204081632653</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11557,11 +11641,17 @@
         <v>219240.2036640409</v>
       </c>
       <c r="H286" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>294</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11590,11 +11680,17 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>294</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11623,11 +11719,17 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>294</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11656,11 +11758,17 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H289" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>294</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11692,8 +11800,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>294</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11725,8 +11839,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>294</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11758,8 +11878,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>294</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11791,8 +11917,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>294</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11824,8 +11956,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>294</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11857,8 +11995,14 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>294</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11890,8 +12034,14 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>294</v>
+      </c>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11923,8 +12073,14 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>294</v>
+      </c>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11956,8 +12112,14 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>294</v>
+      </c>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11989,8 +12151,14 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>294</v>
+      </c>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -12022,8 +12190,14 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>294</v>
+      </c>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -12055,8 +12229,14 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>294</v>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -12088,8 +12268,14 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>294</v>
+      </c>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -12121,8 +12307,14 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>294</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -12154,8 +12346,14 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>294</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -12187,8 +12385,14 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>294</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -12220,8 +12424,14 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>294</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -12250,15 +12460,23 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>294</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L307" t="n">
-        <v>1</v>
-      </c>
-      <c r="M307" t="inlineStr"/>
+        <v>1.093639455782313</v>
+      </c>
+      <c r="M307" t="n">
+        <v>1.010204081632653</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -12283,7 +12501,7 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12316,7 +12534,7 @@
         <v>228958.8497924812</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -12349,7 +12567,7 @@
         <v>228958.8497924812</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12382,7 +12600,7 @@
         <v>242519.0104924812</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12415,7 +12633,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12448,7 +12666,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12481,7 +12699,7 @@
         <v>233977.2058924812</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12514,7 +12732,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12547,7 +12765,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12580,7 +12798,7 @@
         <v>231973.5564924812</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -12646,7 +12864,7 @@
         <v>223906.0422924812</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -12712,7 +12930,7 @@
         <v>226253.9190924812</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -12778,7 +12996,7 @@
         <v>241044.8687924812</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12811,7 +13029,7 @@
         <v>244874.5407924812</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12844,7 +13062,7 @@
         <v>244045.0723924812</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -12877,7 +13095,7 @@
         <v>241487.6015924812</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12910,7 +13128,7 @@
         <v>241487.6015924812</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -12943,7 +13161,7 @@
         <v>241487.6015924812</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12976,7 +13194,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -13009,7 +13227,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H330" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -13042,7 +13260,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H331" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -13075,7 +13293,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H332" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -13108,7 +13326,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H333" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -13141,7 +13359,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H334" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -13174,7 +13392,7 @@
         <v>241489.6015924812</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -13207,7 +13425,7 @@
         <v>239541.4840924812</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -13240,7 +13458,7 @@
         <v>255604.2633924812</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -13273,7 +13491,7 @@
         <v>251233.2737924812</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -13306,7 +13524,7 @@
         <v>238864.2177924812</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -13339,7 +13557,7 @@
         <v>216619.1333924812</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13405,7 +13623,7 @@
         <v>212443.2030924812</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13537,7 +13755,7 @@
         <v>215145.3089924812</v>
       </c>
       <c r="H346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -13636,7 +13854,7 @@
         <v>205112.5715924812</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -13669,7 +13887,7 @@
         <v>207119.4432924812</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -13702,7 +13920,7 @@
         <v>207119.4432924812</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -13735,7 +13953,7 @@
         <v>207119.4432924812</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -13768,7 +13986,7 @@
         <v>207119.4432924812</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -13801,7 +14019,7 @@
         <v>202009.7687924812</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -13999,7 +14217,7 @@
         <v>214565.9258924812</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -14032,7 +14250,7 @@
         <v>207554.9913924812</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -14065,7 +14283,7 @@
         <v>207554.9913924812</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -14098,7 +14316,7 @@
         <v>227345.3518924812</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -15352,7 +15570,7 @@
         <v>247445.9975674812</v>
       </c>
       <c r="H401" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15385,7 +15603,7 @@
         <v>247445.9975674812</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15418,7 +15636,7 @@
         <v>247445.9975674812</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15451,7 +15669,7 @@
         <v>247445.9975674812</v>
       </c>
       <c r="H404" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15484,7 +15702,7 @@
         <v>252368.6209674812</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15517,7 +15735,7 @@
         <v>252152.6143674812</v>
       </c>
       <c r="H406" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15550,7 +15768,7 @@
         <v>252152.6143674812</v>
       </c>
       <c r="H407" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15583,7 +15801,7 @@
         <v>252152.6143674812</v>
       </c>
       <c r="H408" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15616,7 +15834,7 @@
         <v>252152.6143674812</v>
       </c>
       <c r="H409" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15649,7 +15867,7 @@
         <v>254736.8636674812</v>
       </c>
       <c r="H410" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15682,7 +15900,7 @@
         <v>245550.0950674812</v>
       </c>
       <c r="H411" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -15715,7 +15933,7 @@
         <v>245550.0950674812</v>
       </c>
       <c r="H412" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -15748,7 +15966,7 @@
         <v>245551.0950674812</v>
       </c>
       <c r="H413" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -15781,7 +15999,7 @@
         <v>245551.0950674812</v>
       </c>
       <c r="H414" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -15814,7 +16032,7 @@
         <v>245551.0950674812</v>
       </c>
       <c r="H415" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -15847,7 +16065,7 @@
         <v>245551.0950674812</v>
       </c>
       <c r="H416" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -15880,7 +16098,7 @@
         <v>245551.0950674812</v>
       </c>
       <c r="H417" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15913,7 +16131,7 @@
         <v>251020.0699674812</v>
       </c>
       <c r="H418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -15946,7 +16164,7 @@
         <v>246844.8232674812</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15979,7 +16197,7 @@
         <v>248179.5788674812</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -16012,7 +16230,7 @@
         <v>246171.5517674812</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -16045,7 +16263,7 @@
         <v>246172.5517674812</v>
       </c>
       <c r="H422" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -16078,7 +16296,7 @@
         <v>246172.5517674812</v>
       </c>
       <c r="H423" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -16111,7 +16329,7 @@
         <v>246172.5517674812</v>
       </c>
       <c r="H424" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -16144,7 +16362,7 @@
         <v>244164.5245674812</v>
       </c>
       <c r="H425" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -16177,7 +16395,7 @@
         <v>244164.5245674812</v>
       </c>
       <c r="H426" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -16210,7 +16428,7 @@
         <v>238711.3742674812</v>
       </c>
       <c r="H427" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -16243,7 +16461,7 @@
         <v>238032.2719674812</v>
       </c>
       <c r="H428" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -16276,7 +16494,7 @@
         <v>238032.2719674812</v>
       </c>
       <c r="H429" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -16309,7 +16527,7 @@
         <v>238033.2719674812</v>
       </c>
       <c r="H430" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -16771,7 +16989,7 @@
         <v>266100.6833324042</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16804,7 +17022,7 @@
         <v>266100.6833324042</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16837,7 +17055,7 @@
         <v>266091.9458324042</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16870,7 +17088,7 @@
         <v>266091.9458324042</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16903,7 +17121,7 @@
         <v>266224.9458324042</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17299,7 +17517,7 @@
         <v>189598.9943324043</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17332,7 +17550,7 @@
         <v>190648.9943324043</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17365,7 +17583,7 @@
         <v>170231.3305324043</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17398,7 +17616,7 @@
         <v>170231.3305324043</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17431,7 +17649,7 @@
         <v>169183.0759324043</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17464,7 +17682,7 @@
         <v>169423.5524324043</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17497,7 +17715,7 @@
         <v>169423.5524324043</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17530,7 +17748,7 @@
         <v>168965.9989324043</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17563,7 +17781,7 @@
         <v>163150.6187324043</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17596,7 +17814,7 @@
         <v>163428.0800324043</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17629,7 +17847,7 @@
         <v>163627.2956324042</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17662,7 +17880,7 @@
         <v>163627.2956324042</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17695,7 +17913,7 @@
         <v>163628.5959324042</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17728,7 +17946,7 @@
         <v>163437.4354324043</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17761,7 +17979,7 @@
         <v>163437.4354324043</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -18487,7 +18705,7 @@
         <v>131507.1247324042</v>
       </c>
       <c r="H496" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I496" t="inlineStr"/>
       <c r="J496" t="inlineStr"/>
@@ -18883,7 +19101,7 @@
         <v>128978.7534324043</v>
       </c>
       <c r="H508" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -19081,7 +19299,7 @@
         <v>130705.8789324043</v>
       </c>
       <c r="H514" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -19114,7 +19332,7 @@
         <v>130705.8789324043</v>
       </c>
       <c r="H515" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -19147,7 +19365,7 @@
         <v>130715.8789324043</v>
       </c>
       <c r="H516" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -19180,7 +19398,7 @@
         <v>150262.9348980484</v>
       </c>
       <c r="H517" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -19213,7 +19431,7 @@
         <v>141602.9348980484</v>
       </c>
       <c r="H518" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -19246,7 +19464,7 @@
         <v>141602.9348980484</v>
       </c>
       <c r="H519" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -19279,7 +19497,7 @@
         <v>141602.9348980484</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -19345,7 +19563,7 @@
         <v>140447.9022980484</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19378,7 +19596,7 @@
         <v>140447.9022980484</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19411,7 +19629,7 @@
         <v>143126.5405980484</v>
       </c>
       <c r="H524" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -19774,7 +19992,7 @@
         <v>146696.3729980484</v>
       </c>
       <c r="H535" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -19807,7 +20025,7 @@
         <v>146696.3729980484</v>
       </c>
       <c r="H536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -19840,7 +20058,7 @@
         <v>146696.3729980484</v>
       </c>
       <c r="H537" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -19873,7 +20091,7 @@
         <v>146696.3729980484</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19906,7 +20124,7 @@
         <v>146696.3729980484</v>
       </c>
       <c r="H539" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -19939,7 +20157,7 @@
         <v>146696.3729980484</v>
       </c>
       <c r="H540" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -19972,7 +20190,7 @@
         <v>149356.4802980484</v>
       </c>
       <c r="H541" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -20005,7 +20223,7 @@
         <v>149356.4802980484</v>
       </c>
       <c r="H542" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -20038,7 +20256,7 @@
         <v>149306.4802980484</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -20071,7 +20289,7 @@
         <v>149431.7871980484</v>
       </c>
       <c r="H544" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -20137,7 +20355,7 @@
         <v>148642.5564980484</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I546" t="inlineStr"/>
       <c r="J546" t="inlineStr"/>
@@ -20269,7 +20487,7 @@
         <v>149079.0371980484</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20302,7 +20520,7 @@
         <v>149079.0371980484</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20335,7 +20553,7 @@
         <v>157520.3404980484</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20368,7 +20586,7 @@
         <v>155744.8156980484</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20401,7 +20619,7 @@
         <v>159374.5756980484</v>
       </c>
       <c r="H554" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20434,7 +20652,7 @@
         <v>173504.4549980484</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20467,7 +20685,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H556" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -20500,7 +20718,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -20533,7 +20751,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H558" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I558" t="inlineStr"/>
       <c r="J558" t="inlineStr"/>
@@ -20566,7 +20784,7 @@
         <v>176901.4885980484</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -20599,7 +20817,7 @@
         <v>178439.2036980484</v>
       </c>
       <c r="H560" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -20632,7 +20850,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H561" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -20665,7 +20883,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H562" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -20698,7 +20916,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H563" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -20731,7 +20949,7 @@
         <v>176756.2550980484</v>
       </c>
       <c r="H564" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -20764,7 +20982,7 @@
         <v>176898.9844980484</v>
       </c>
       <c r="H565" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -20797,7 +21015,7 @@
         <v>176899.9844980484</v>
       </c>
       <c r="H566" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -20830,7 +21048,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H567" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -20863,7 +21081,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H568" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -20896,7 +21114,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H569" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -20929,7 +21147,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H570" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -20962,7 +21180,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H571" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -20995,7 +21213,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H572" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -21028,7 +21246,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H573" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -21061,7 +21279,7 @@
         <v>176907.4614414219</v>
       </c>
       <c r="H574" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -21094,7 +21312,7 @@
         <v>169478.1771414219</v>
       </c>
       <c r="H575" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -21127,7 +21345,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H576" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -21160,7 +21378,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H577" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -21193,7 +21411,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H578" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -21226,7 +21444,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -21259,7 +21477,7 @@
         <v>168202.9434414219</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -21292,7 +21510,7 @@
         <v>162300.5857414219</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -21325,7 +21543,7 @@
         <v>171451.0112414219</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -21358,7 +21576,7 @@
         <v>157887.3179414219</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -21391,7 +21609,7 @@
         <v>158175.4627414219</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -21424,7 +21642,7 @@
         <v>158175.4627414219</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
@@ -21457,7 +21675,7 @@
         <v>162351.6379414219</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -21490,7 +21708,7 @@
         <v>161722.1324414219</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -21523,7 +21741,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -21556,7 +21774,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -21589,7 +21807,7 @@
         <v>161711.5956414219</v>
       </c>
       <c r="H590" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -21655,7 +21873,7 @@
         <v>161717.8370414219</v>
       </c>
       <c r="H592" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -21688,7 +21906,7 @@
         <v>161718.8370414219</v>
       </c>
       <c r="H593" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -21721,7 +21939,7 @@
         <v>161541.6489414219</v>
       </c>
       <c r="H594" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -22216,7 +22434,7 @@
         <v>153801.9730414219</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -22249,7 +22467,7 @@
         <v>144057.3441414219</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -22282,7 +22500,7 @@
         <v>145752.1245414219</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -22315,7 +22533,7 @@
         <v>145752.1245414219</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22348,7 +22566,7 @@
         <v>145752.1245414219</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22381,7 +22599,7 @@
         <v>145607.6102414219</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22414,7 +22632,7 @@
         <v>145607.6102414219</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22447,7 +22665,7 @@
         <v>125485.2144414219</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22480,7 +22698,7 @@
         <v>137246.3859792344</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -22513,7 +22731,7 @@
         <v>128876.4923792344</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -22546,7 +22764,7 @@
         <v>130720.7836792344</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -22579,7 +22797,7 @@
         <v>129357.7105792344</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -22612,7 +22830,7 @@
         <v>129357.7105792344</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22645,7 +22863,7 @@
         <v>127562.9378792344</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22678,7 +22896,7 @@
         <v>124547.1029792344</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22711,7 +22929,7 @@
         <v>138444.6161792344</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22744,7 +22962,7 @@
         <v>134003.0030792344</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22777,7 +22995,7 @@
         <v>132974.0007792344</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22810,7 +23028,7 @@
         <v>133765.7125792344</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22843,7 +23061,7 @@
         <v>104769.9186792344</v>
       </c>
       <c r="H628" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22876,7 +23094,7 @@
         <v>108468.9518792344</v>
       </c>
       <c r="H629" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -22909,7 +23127,7 @@
         <v>108468.9518792344</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22942,7 +23160,7 @@
         <v>108270.5719792344</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22975,7 +23193,7 @@
         <v>108270.5719792344</v>
       </c>
       <c r="H632" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23008,7 +23226,7 @@
         <v>107910.8253792344</v>
       </c>
       <c r="H633" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23107,7 +23325,7 @@
         <v>100883.2236792344</v>
       </c>
       <c r="H636" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23140,7 +23358,7 @@
         <v>111931.1574792344</v>
       </c>
       <c r="H637" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23173,7 +23391,7 @@
         <v>82348.90397923443</v>
       </c>
       <c r="H638" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23206,7 +23424,7 @@
         <v>82037.03857923443</v>
       </c>
       <c r="H639" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23239,7 +23457,7 @@
         <v>82037.03857923443</v>
       </c>
       <c r="H640" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -23272,7 +23490,7 @@
         <v>78575.39597923442</v>
       </c>
       <c r="H641" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23305,7 +23523,7 @@
         <v>78580.14137923442</v>
       </c>
       <c r="H642" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -23437,7 +23655,7 @@
         <v>104468.2771792344</v>
       </c>
       <c r="H646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -23503,7 +23721,7 @@
         <v>80656.42867243111</v>
       </c>
       <c r="H648" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -26880,6 +27098,6 @@
       <c r="M750" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-09 BackTest ZRX.xlsx
+++ b/BackTest/2019-10-09 BackTest ZRX.xlsx
@@ -451,7 +451,7 @@
         <v>19065.55019065744</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>28475.29819065744</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>294</v>
+      </c>
+      <c r="J3" t="n">
+        <v>294</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>29105.19379065744</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>296</v>
+      </c>
+      <c r="J4" t="n">
+        <v>294</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,11 +562,19 @@
         <v>28606.19379065744</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>297</v>
+      </c>
+      <c r="J5" t="n">
+        <v>294</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -583,11 +603,19 @@
         <v>35173.51089065744</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>296</v>
+      </c>
+      <c r="J6" t="n">
+        <v>294</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -616,11 +644,19 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>297</v>
+      </c>
+      <c r="J7" t="n">
+        <v>294</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L7" t="n">
         <v>1</v>
       </c>
@@ -649,11 +685,19 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>298</v>
+      </c>
+      <c r="J8" t="n">
+        <v>294</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -682,11 +726,19 @@
         <v>36429.33303830845</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>298</v>
+      </c>
+      <c r="J9" t="n">
+        <v>294</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -715,11 +767,19 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>298</v>
+      </c>
+      <c r="J10" t="n">
+        <v>294</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L10" t="n">
         <v>1</v>
       </c>
@@ -748,11 +808,19 @@
         <v>38445.98343830845</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>299</v>
+      </c>
+      <c r="J11" t="n">
+        <v>294</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L11" t="n">
         <v>1</v>
       </c>
@@ -781,11 +849,19 @@
         <v>37486.08063830844</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>299</v>
+      </c>
+      <c r="J12" t="n">
+        <v>294</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L12" t="n">
         <v>1</v>
       </c>
@@ -814,11 +890,19 @@
         <v>37511.08063830844</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>298</v>
+      </c>
+      <c r="J13" t="n">
+        <v>294</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -847,11 +931,19 @@
         <v>36779.33103830844</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>299</v>
+      </c>
+      <c r="J14" t="n">
+        <v>294</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -883,8 +975,14 @@
         <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>294</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L15" t="n">
         <v>1</v>
       </c>
@@ -916,8 +1014,14 @@
         <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>294</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L16" t="n">
         <v>1</v>
       </c>
@@ -949,8 +1053,14 @@
         <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>294</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L17" t="n">
         <v>1</v>
       </c>
@@ -982,8 +1092,14 @@
         <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>294</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L18" t="n">
         <v>1</v>
       </c>
@@ -1012,11 +1128,17 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>294</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L19" t="n">
         <v>1</v>
       </c>
@@ -1045,11 +1167,17 @@
         <v>45306.51347164177</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>294</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L20" t="n">
         <v>1</v>
       </c>
@@ -1078,11 +1206,17 @@
         <v>45229.11677164178</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>294</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L21" t="n">
         <v>1</v>
       </c>
@@ -1111,11 +1245,17 @@
         <v>44788.70797164178</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>294</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L22" t="n">
         <v>1</v>
       </c>
@@ -1144,11 +1284,17 @@
         <v>44684.16667164178</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>294</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L23" t="n">
         <v>1</v>
       </c>
@@ -1180,8 +1326,14 @@
         <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>294</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L24" t="n">
         <v>1</v>
       </c>
@@ -1213,8 +1365,14 @@
         <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>294</v>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L25" t="n">
         <v>1</v>
       </c>
@@ -1246,8 +1404,14 @@
         <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>294</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L26" t="n">
         <v>1</v>
       </c>
@@ -1279,8 +1443,14 @@
         <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>294</v>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L27" t="n">
         <v>1</v>
       </c>
@@ -1312,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>294</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L28" t="n">
         <v>1</v>
       </c>
@@ -1345,8 +1521,14 @@
         <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>294</v>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L29" t="n">
         <v>1</v>
       </c>
@@ -1378,8 +1560,14 @@
         <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>294</v>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L30" t="n">
         <v>1</v>
       </c>
@@ -1411,8 +1599,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>294</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1638,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>294</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1477,8 +1677,14 @@
         <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>294</v>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L33" t="n">
         <v>1</v>
       </c>
@@ -1510,8 +1716,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>294</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1755,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>294</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1576,8 +1794,14 @@
         <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>294</v>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L36" t="n">
         <v>1</v>
       </c>
@@ -1609,8 +1833,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>294</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1872,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>294</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1911,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>294</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1950,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>294</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1989,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>294</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +2028,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>294</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +2067,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>294</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +2106,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>294</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +2145,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>294</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +2184,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>294</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2223,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>294</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2262,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>294</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2301,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>294</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2340,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>294</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2379,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>294</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2418,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>294</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2457,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>294</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2496,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>294</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2535,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>294</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2574,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>294</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,15 +2610,17 @@
         <v>21442.12082299315</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>291</v>
-      </c>
-      <c r="K57" t="inlineStr"/>
+        <v>294</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2303,17 +2649,15 @@
         <v>22048.89612299315</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>291</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L58" t="n">
@@ -2344,17 +2688,15 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>292</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L59" t="n">
@@ -2385,15 +2727,17 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>293</v>
-      </c>
-      <c r="K60" t="inlineStr"/>
+        <v>294</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2422,17 +2766,15 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L61" t="n">
@@ -2467,11 +2809,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L62" t="n">
@@ -2502,15 +2844,17 @@
         <v>22673.98592299315</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>293</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>293</v>
-      </c>
-      <c r="K63" t="inlineStr"/>
+        <v>294</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2543,11 +2887,11 @@
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L64" t="n">
@@ -2582,11 +2926,11 @@
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="n">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L65" t="n">
@@ -2620,8 +2964,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>294</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2653,8 +3003,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>294</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2686,8 +3042,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>294</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2719,8 +3081,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>294</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2752,8 +3120,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>294</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2785,8 +3159,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>294</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2818,8 +3198,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>294</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2851,8 +3237,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>294</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2884,8 +3276,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>294</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2917,8 +3315,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>294</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2950,8 +3354,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>294</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2983,8 +3393,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>294</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3016,8 +3432,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>294</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3049,8 +3471,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>294</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3082,8 +3510,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>294</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3115,8 +3549,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>294</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3148,8 +3588,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>294</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3181,8 +3627,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>294</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3214,8 +3666,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>294</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3247,8 +3705,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>294</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3280,8 +3744,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>294</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3313,8 +3783,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>294</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3346,8 +3822,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>294</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3379,8 +3861,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>294</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3412,8 +3900,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>294</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3445,8 +3939,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>294</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3478,8 +3978,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>294</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3511,8 +4017,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>294</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3544,8 +4056,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>294</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3577,8 +4095,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>294</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3610,8 +4134,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>294</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3640,11 +4170,17 @@
         <v>51343.97198051824</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>294</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3673,11 +4209,17 @@
         <v>51343.97198051824</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>294</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3709,8 +4251,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>294</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3742,8 +4290,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>294</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3772,11 +4326,17 @@
         <v>50893.78608051824</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>294</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3808,8 +4368,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>294</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3838,11 +4404,17 @@
         <v>51151.78608051824</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>294</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3871,11 +4443,17 @@
         <v>48071.15158051824</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>294</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3904,11 +4482,17 @@
         <v>48072.15158051824</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>294</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3937,11 +4521,17 @@
         <v>47921.15158051824</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>294</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3970,11 +4560,17 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>294</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4003,11 +4599,17 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>294</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4036,11 +4638,17 @@
         <v>47826.87128051824</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>294</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4072,8 +4680,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>294</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4105,8 +4719,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>294</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4138,8 +4758,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>294</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4168,11 +4794,17 @@
         <v>63486.37708051824</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>294</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4204,8 +4836,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>294</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4237,8 +4875,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>294</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4270,8 +4914,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>294</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4303,8 +4953,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>294</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4336,8 +4992,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>294</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4369,8 +5031,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>294</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4402,8 +5070,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>294</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4435,8 +5109,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>294</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4468,8 +5148,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>294</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4501,8 +5187,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>294</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4534,8 +5226,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>294</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4567,8 +5265,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>294</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4600,8 +5304,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>294</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4630,11 +5340,17 @@
         <v>87188.71518051825</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>294</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4666,8 +5382,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>294</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4696,11 +5418,17 @@
         <v>87600.71518051825</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>294</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4729,11 +5457,17 @@
         <v>87600.71518051825</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>294</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4762,11 +5496,17 @@
         <v>87595.38978051825</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>294</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4795,11 +5535,17 @@
         <v>87595.38978051825</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>294</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4828,11 +5574,17 @@
         <v>87055.53398051824</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>294</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4861,11 +5613,17 @@
         <v>92055.53398051824</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>294</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4894,11 +5652,17 @@
         <v>92294.94365739121</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>294</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4927,11 +5691,17 @@
         <v>92219.49845739121</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>294</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4960,11 +5730,17 @@
         <v>92574.0856573912</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>294</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4993,11 +5769,17 @@
         <v>92074.0335573912</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>294</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5026,11 +5808,17 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>294</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5059,11 +5847,17 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>294</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5092,11 +5886,17 @@
         <v>92084.0325573912</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>294</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5125,11 +5925,17 @@
         <v>94230.9289573912</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>294</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5158,11 +5964,17 @@
         <v>94230.9289573912</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>294</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5191,11 +6003,17 @@
         <v>94076.60805739119</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>294</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5224,11 +6042,17 @@
         <v>94223.52935739119</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>294</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5257,11 +6081,17 @@
         <v>94223.52935739119</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>294</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5290,11 +6120,17 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>294</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5323,11 +6159,17 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>294</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5356,11 +6198,17 @@
         <v>101946.9588573912</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>294</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5389,11 +6237,17 @@
         <v>101182.2294573912</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>294</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5422,11 +6276,17 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>294</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5455,11 +6315,17 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>294</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5488,11 +6354,17 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>294</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5521,11 +6393,17 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>294</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5554,11 +6432,17 @@
         <v>101496.4786483297</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>294</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5587,11 +6471,17 @@
         <v>101497.4786483297</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>294</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5620,11 +6510,17 @@
         <v>101335.5247483297</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>294</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5653,11 +6549,17 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>294</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5686,11 +6588,17 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>294</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5719,11 +6627,17 @@
         <v>101469.5327483297</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>294</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5752,11 +6666,17 @@
         <v>102268.8932483297</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>294</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5785,11 +6705,17 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>294</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5818,11 +6744,17 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>294</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5851,11 +6783,17 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>294</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5884,11 +6822,17 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>294</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5917,11 +6861,17 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>294</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5950,11 +6900,17 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>294</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5983,11 +6939,17 @@
         <v>99128.68984832971</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>294</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6016,11 +6978,17 @@
         <v>99181.77344832971</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>294</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6049,11 +7017,17 @@
         <v>98769.48754832971</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>294</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6082,11 +7056,17 @@
         <v>103040.2752483297</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>294</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6115,11 +7095,17 @@
         <v>96862.9277483297</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>294</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6148,11 +7134,17 @@
         <v>92373.96854832971</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>294</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6181,11 +7173,17 @@
         <v>94339.59604832971</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>294</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6214,11 +7212,17 @@
         <v>94439.5444483297</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>294</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6247,11 +7251,17 @@
         <v>94439.5444483297</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>294</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6280,11 +7290,17 @@
         <v>93430.94501111287</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>294</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6313,11 +7329,17 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>294</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6346,11 +7368,17 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>294</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6379,11 +7407,17 @@
         <v>90122.19911111287</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>294</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6415,8 +7449,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>294</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6448,8 +7488,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>294</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6481,8 +7527,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>294</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6514,8 +7566,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>294</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6547,8 +7605,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>294</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6580,8 +7644,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>294</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6613,8 +7683,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>294</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6646,8 +7722,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>294</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6679,8 +7761,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>294</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6712,8 +7800,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>294</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6745,8 +7839,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>294</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6778,8 +7878,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>294</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6811,8 +7917,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>294</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6844,8 +7956,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>294</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6877,8 +7995,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>294</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6910,8 +8034,14 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>294</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6943,8 +8073,14 @@
         <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>294</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6976,8 +8112,14 @@
         <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>294</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7009,8 +8151,14 @@
         <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>294</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7042,8 +8190,14 @@
         <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>294</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7075,8 +8229,14 @@
         <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>294</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7108,8 +8268,14 @@
         <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>294</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7141,8 +8307,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>294</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7174,8 +8346,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>294</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7207,8 +8385,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>294</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7240,8 +8424,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>294</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7273,8 +8463,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>294</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7306,8 +8502,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>294</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7339,8 +8541,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>294</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7372,8 +8580,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>294</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7405,8 +8619,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>294</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7438,8 +8658,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>294</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7471,8 +8697,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>294</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7504,8 +8736,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>294</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7537,8 +8775,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>294</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7570,8 +8814,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>294</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7603,8 +8853,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>294</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7636,8 +8892,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>294</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7669,8 +8931,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>294</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7702,8 +8970,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>294</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -7735,8 +9009,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>294</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -7768,8 +9048,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>294</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -7801,8 +9087,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>294</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -7834,8 +9126,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>294</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -7867,8 +9165,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>294</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -7900,8 +9204,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>294</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -7933,8 +9243,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>294</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -7966,8 +9282,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>294</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -7999,8 +9321,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>294</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8032,8 +9360,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>294</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8065,8 +9399,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>294</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8098,8 +9438,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>294</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8131,8 +9477,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>294</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8164,8 +9516,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>294</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8197,8 +9555,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>294</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8230,8 +9594,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>294</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8263,8 +9633,14 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>294</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8293,11 +9669,17 @@
         <v>93470.72338916895</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>294</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8326,11 +9708,17 @@
         <v>87272.35888916896</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>294</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8359,11 +9747,17 @@
         <v>87274.35888916896</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>294</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8392,11 +9786,17 @@
         <v>81837.10118916896</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>294</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8425,11 +9825,17 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>294</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8458,11 +9864,17 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>294</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8491,11 +9903,17 @@
         <v>80181.11468916896</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>294</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8524,11 +9942,17 @@
         <v>80923.35578916896</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>294</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8557,11 +9981,17 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>294</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8590,11 +10020,17 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>294</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8623,11 +10059,17 @@
         <v>76840.63208916895</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>294</v>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8656,11 +10098,17 @@
         <v>76854.05128916896</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>294</v>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8689,11 +10137,17 @@
         <v>77098.89578916896</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>294</v>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8722,11 +10176,17 @@
         <v>79067.25688916896</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>294</v>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8755,11 +10215,17 @@
         <v>78418.05808916896</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>294</v>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8788,11 +10254,17 @@
         <v>69249.35978916896</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>294</v>
+      </c>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8821,11 +10293,17 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>294</v>
+      </c>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8854,11 +10332,17 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>294</v>
+      </c>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8887,11 +10371,17 @@
         <v>73064.83448916896</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>294</v>
+      </c>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8920,11 +10410,17 @@
         <v>73216.10518916896</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>294</v>
+      </c>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -8953,11 +10449,17 @@
         <v>71017.82948916896</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>294</v>
+      </c>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -8986,11 +10488,17 @@
         <v>74026.34018916896</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>294</v>
+      </c>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9019,11 +10527,17 @@
         <v>76100.12678916896</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>294</v>
+      </c>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9052,11 +10566,17 @@
         <v>76100.12678916896</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>294</v>
+      </c>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9085,11 +10605,17 @@
         <v>84322.91918916897</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>294</v>
+      </c>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9118,11 +10644,17 @@
         <v>94216.04673837531</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>294</v>
+      </c>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9151,11 +10683,17 @@
         <v>118289.4058916926</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>294</v>
+      </c>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9184,11 +10722,17 @@
         <v>97949.93709169261</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>294</v>
+      </c>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +10761,17 @@
         <v>96665.93709169261</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>294</v>
+      </c>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9250,11 +10800,17 @@
         <v>120536.3161916926</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>294</v>
+      </c>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9283,11 +10839,17 @@
         <v>120396.7227916926</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>294</v>
+      </c>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9316,11 +10878,17 @@
         <v>120397.7227916926</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>294</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +10917,17 @@
         <v>114376.9080916926</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>294</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9382,11 +10956,17 @@
         <v>114520.2763456609</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>294</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +10995,17 @@
         <v>114520.2763456609</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>294</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9448,11 +11034,17 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>294</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9481,11 +11073,17 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>294</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9514,11 +11112,17 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>294</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +11151,17 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>294</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9580,11 +11190,17 @@
         <v>113810.4485456609</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>294</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9613,11 +11229,17 @@
         <v>114343.0939456608</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>294</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +11268,17 @@
         <v>114343.0939456608</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>294</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +11307,17 @@
         <v>133048.1571456608</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>294</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9712,11 +11346,17 @@
         <v>153837.1165456608</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>294</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -9748,8 +11388,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>294</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -9781,8 +11427,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>294</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -9814,8 +11466,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>294</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -9847,8 +11505,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>294</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -9880,8 +11544,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>294</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -9913,8 +11583,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>294</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -9946,8 +11622,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>294</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -9976,15 +11658,23 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>294</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L289" t="n">
-        <v>1</v>
-      </c>
-      <c r="M289" t="inlineStr"/>
+        <v>1.100442176870748</v>
+      </c>
+      <c r="M289" t="n">
+        <v>1.010204081632653</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -10009,7 +11699,7 @@
         <v>234061.8295640409</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10042,7 +11732,7 @@
         <v>221649.9500640409</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10075,7 +11765,7 @@
         <v>206774.6899640409</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10108,7 +11798,7 @@
         <v>192388.9711640409</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10141,7 +11831,7 @@
         <v>192388.9711640409</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10339,7 +12029,7 @@
         <v>203257.3128924812</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10372,7 +12062,7 @@
         <v>204179.4417924812</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10405,7 +12095,7 @@
         <v>208788.4716924812</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10438,7 +12128,7 @@
         <v>208788.4716924812</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10471,7 +12161,7 @@
         <v>207435.8250924812</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10504,7 +12194,7 @@
         <v>201749.3104924812</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10537,7 +12227,7 @@
         <v>197495.1062924812</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10570,7 +12260,7 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10603,7 +12293,7 @@
         <v>225221.5161924812</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10636,7 +12326,7 @@
         <v>228958.8497924812</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10669,7 +12359,7 @@
         <v>228958.8497924812</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10702,7 +12392,7 @@
         <v>242519.0104924812</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10735,7 +12425,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10768,7 +12458,7 @@
         <v>233344.3617924812</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10801,7 +12491,7 @@
         <v>233977.2058924812</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10834,7 +12524,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10867,7 +12557,7 @@
         <v>233883.3814924812</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10900,7 +12590,7 @@
         <v>231973.5564924812</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10933,7 +12623,7 @@
         <v>223906.0422924812</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10966,7 +12656,7 @@
         <v>223906.0422924812</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10999,7 +12689,7 @@
         <v>226241.9190924812</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11032,7 +12722,7 @@
         <v>226253.9190924812</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11065,7 +12755,7 @@
         <v>211909.4556924812</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11098,7 +12788,7 @@
         <v>241044.8687924812</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -18820,7 +20510,7 @@
         <v>183430.3742980484</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I557" t="inlineStr"/>
       <c r="J557" t="inlineStr"/>
@@ -18886,7 +20576,7 @@
         <v>176901.4885980484</v>
       </c>
       <c r="H559" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I559" t="inlineStr"/>
       <c r="J559" t="inlineStr"/>
@@ -18919,7 +20609,7 @@
         <v>178439.2036980484</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -18952,7 +20642,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H561" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I561" t="inlineStr"/>
       <c r="J561" t="inlineStr"/>
@@ -18985,7 +20675,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H562" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I562" t="inlineStr"/>
       <c r="J562" t="inlineStr"/>
@@ -19018,7 +20708,7 @@
         <v>176755.2550980484</v>
       </c>
       <c r="H563" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I563" t="inlineStr"/>
       <c r="J563" t="inlineStr"/>
@@ -19051,7 +20741,7 @@
         <v>176756.2550980484</v>
       </c>
       <c r="H564" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I564" t="inlineStr"/>
       <c r="J564" t="inlineStr"/>
@@ -19084,7 +20774,7 @@
         <v>176898.9844980484</v>
       </c>
       <c r="H565" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I565" t="inlineStr"/>
       <c r="J565" t="inlineStr"/>
@@ -19117,7 +20807,7 @@
         <v>176899.9844980484</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I566" t="inlineStr"/>
       <c r="J566" t="inlineStr"/>
@@ -19150,7 +20840,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H567" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I567" t="inlineStr"/>
       <c r="J567" t="inlineStr"/>
@@ -19183,7 +20873,7 @@
         <v>200422.4203414219</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19216,7 +20906,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H569" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I569" t="inlineStr"/>
       <c r="J569" t="inlineStr"/>
@@ -19249,7 +20939,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19282,7 +20972,7 @@
         <v>200023.8350414219</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I571" t="inlineStr"/>
       <c r="J571" t="inlineStr"/>
@@ -19315,7 +21005,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I572" t="inlineStr"/>
       <c r="J572" t="inlineStr"/>
@@ -19348,7 +21038,7 @@
         <v>202139.2555414219</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I573" t="inlineStr"/>
       <c r="J573" t="inlineStr"/>
@@ -19381,7 +21071,7 @@
         <v>176907.4614414219</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I574" t="inlineStr"/>
       <c r="J574" t="inlineStr"/>
@@ -19414,7 +21104,7 @@
         <v>169478.1771414219</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19447,7 +21137,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -19480,7 +21170,7 @@
         <v>168209.1193414219</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I577" t="inlineStr"/>
       <c r="J577" t="inlineStr"/>
@@ -19513,7 +21203,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I578" t="inlineStr"/>
       <c r="J578" t="inlineStr"/>
@@ -19546,7 +21236,7 @@
         <v>168210.1193414219</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I579" t="inlineStr"/>
       <c r="J579" t="inlineStr"/>
@@ -19579,7 +21269,7 @@
         <v>168202.9434414219</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I580" t="inlineStr"/>
       <c r="J580" t="inlineStr"/>
@@ -19612,7 +21302,7 @@
         <v>162300.5857414219</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I581" t="inlineStr"/>
       <c r="J581" t="inlineStr"/>
@@ -19645,7 +21335,7 @@
         <v>171451.0112414219</v>
       </c>
       <c r="H582" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I582" t="inlineStr"/>
       <c r="J582" t="inlineStr"/>
@@ -19678,7 +21368,7 @@
         <v>157887.3179414219</v>
       </c>
       <c r="H583" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I583" t="inlineStr"/>
       <c r="J583" t="inlineStr"/>
@@ -19711,7 +21401,7 @@
         <v>158175.4627414219</v>
       </c>
       <c r="H584" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I584" t="inlineStr"/>
       <c r="J584" t="inlineStr"/>
@@ -19777,7 +21467,7 @@
         <v>162351.6379414219</v>
       </c>
       <c r="H586" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I586" t="inlineStr"/>
       <c r="J586" t="inlineStr"/>
@@ -19810,7 +21500,7 @@
         <v>161722.1324414219</v>
       </c>
       <c r="H587" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I587" t="inlineStr"/>
       <c r="J587" t="inlineStr"/>
@@ -19843,7 +21533,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H588" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I588" t="inlineStr"/>
       <c r="J588" t="inlineStr"/>
@@ -19876,7 +21566,7 @@
         <v>161723.1324414219</v>
       </c>
       <c r="H589" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I589" t="inlineStr"/>
       <c r="J589" t="inlineStr"/>
@@ -19909,7 +21599,7 @@
         <v>161711.5956414219</v>
       </c>
       <c r="H590" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I590" t="inlineStr"/>
       <c r="J590" t="inlineStr"/>
@@ -19942,7 +21632,7 @@
         <v>161877.0633414219</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I591" t="inlineStr"/>
       <c r="J591" t="inlineStr"/>
@@ -19975,7 +21665,7 @@
         <v>161717.8370414219</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -20008,7 +21698,7 @@
         <v>161718.8370414219</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -20041,7 +21731,7 @@
         <v>161541.6489414219</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20074,7 +21764,7 @@
         <v>161541.6489414219</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20107,7 +21797,7 @@
         <v>160693.3788414219</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20140,7 +21830,7 @@
         <v>161553.2400414219</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20173,7 +21863,7 @@
         <v>161498.4827414219</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20206,7 +21896,7 @@
         <v>161611.7157414219</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20239,7 +21929,7 @@
         <v>159492.1447414219</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20272,7 +21962,7 @@
         <v>159492.1447414219</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23902,17 +25592,11 @@
         <v>-147415.7133688938</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>303</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23945,11 +25629,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23982,11 +25662,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24019,11 +25695,7 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24056,11 +25728,7 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24093,11 +25761,7 @@
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24130,11 +25794,7 @@
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24167,11 +25827,7 @@
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24204,11 +25860,7 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24241,11 +25893,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24278,11 +25926,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24315,11 +25959,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24352,11 +25992,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24389,11 +26025,7 @@
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24426,11 +26058,7 @@
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24459,15 +26087,15 @@
         <v>-117746.4539688938</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>305</v>
+      </c>
+      <c r="J726" t="n">
+        <v>305</v>
+      </c>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24499,10 +26127,12 @@
         <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
+      <c r="J727" t="n">
+        <v>305</v>
+      </c>
       <c r="K727" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L727" t="n">
@@ -24536,7 +26166,9 @@
         <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
+      <c r="J728" t="n">
+        <v>305</v>
+      </c>
       <c r="K728" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24573,7 +26205,9 @@
         <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
+      <c r="J729" t="n">
+        <v>305</v>
+      </c>
       <c r="K729" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24612,7 +26246,9 @@
       <c r="I730" t="n">
         <v>302</v>
       </c>
-      <c r="J730" t="inlineStr"/>
+      <c r="J730" t="n">
+        <v>305</v>
+      </c>
       <c r="K730" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24651,7 +26287,9 @@
       <c r="I731" t="n">
         <v>304</v>
       </c>
-      <c r="J731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>305</v>
+      </c>
       <c r="K731" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24690,7 +26328,9 @@
       <c r="I732" t="n">
         <v>305</v>
       </c>
-      <c r="J732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>305</v>
+      </c>
       <c r="K732" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24729,7 +26369,9 @@
       <c r="I733" t="n">
         <v>304</v>
       </c>
-      <c r="J733" t="inlineStr"/>
+      <c r="J733" t="n">
+        <v>305</v>
+      </c>
       <c r="K733" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24768,7 +26410,9 @@
       <c r="I734" t="n">
         <v>305</v>
       </c>
-      <c r="J734" t="inlineStr"/>
+      <c r="J734" t="n">
+        <v>305</v>
+      </c>
       <c r="K734" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24807,7 +26451,9 @@
       <c r="I735" t="n">
         <v>305</v>
       </c>
-      <c r="J735" t="inlineStr"/>
+      <c r="J735" t="n">
+        <v>305</v>
+      </c>
       <c r="K735" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24846,7 +26492,9 @@
       <c r="I736" t="n">
         <v>305</v>
       </c>
-      <c r="J736" t="inlineStr"/>
+      <c r="J736" t="n">
+        <v>305</v>
+      </c>
       <c r="K736" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24885,7 +26533,9 @@
       <c r="I737" t="n">
         <v>304</v>
       </c>
-      <c r="J737" t="inlineStr"/>
+      <c r="J737" t="n">
+        <v>305</v>
+      </c>
       <c r="K737" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24919,10 +26569,14 @@
         <v>-112946.076962031</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>307</v>
+      </c>
+      <c r="J738" t="n">
+        <v>305</v>
+      </c>
       <c r="K738" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24956,10 +26610,14 @@
         <v>-112945.076962031</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>308</v>
+      </c>
+      <c r="J739" t="n">
+        <v>305</v>
+      </c>
       <c r="K739" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24993,10 +26651,14 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>309</v>
+      </c>
+      <c r="J740" t="n">
+        <v>305</v>
+      </c>
       <c r="K740" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25030,10 +26692,14 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>308</v>
+      </c>
+      <c r="J741" t="n">
+        <v>305</v>
+      </c>
       <c r="K741" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25067,10 +26733,14 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>308</v>
+      </c>
+      <c r="J742" t="n">
+        <v>305</v>
+      </c>
       <c r="K742" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -25104,16 +26774,22 @@
         <v>-112951.076962031</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>308</v>
+      </c>
+      <c r="J743" t="n">
+        <v>305</v>
+      </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L743" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
       <c r="M743" t="inlineStr"/>
     </row>
     <row r="744">
@@ -25139,11 +26815,19 @@
         <v>-112489.076962031</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>308</v>
+      </c>
+      <c r="J744" t="n">
+        <v>305</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25172,11 +26856,19 @@
         <v>-111057.427862031</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>309</v>
+      </c>
+      <c r="J745" t="n">
+        <v>305</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25205,11 +26897,19 @@
         <v>-101994.636062031</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>310</v>
+      </c>
+      <c r="J746" t="n">
+        <v>305</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25238,11 +26938,19 @@
         <v>-97218.82524442094</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>313</v>
+      </c>
+      <c r="J747" t="n">
+        <v>305</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25271,11 +26979,19 @@
         <v>-99934.51804442094</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>318</v>
+      </c>
+      <c r="J748" t="n">
+        <v>305</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25304,11 +27020,19 @@
         <v>-99834.51804442094</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>312</v>
+      </c>
+      <c r="J749" t="n">
+        <v>305</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25337,11 +27061,19 @@
         <v>-99834.51804442094</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>313</v>
+      </c>
+      <c r="J750" t="n">
+        <v>305</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
